--- a/tests/test1/d30/ЛМ, 0.1.xlsx
+++ b/tests/test1/d30/ЛМ, 0.1.xlsx
@@ -546,7 +546,7 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Точ</t>
+          <t>Успех</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="X2" t="n">
-        <v>0.003090100000001428</v>
+        <v>0.002558700000001579</v>
       </c>
       <c r="Y2" t="n">
         <v>10</v>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="X3" t="n">
-        <v>0.002626299999995751</v>
+        <v>0.004254200000005426</v>
       </c>
       <c r="Y3" t="n">
         <v>10</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="X4" t="n">
-        <v>0.002288300000003574</v>
+        <v>0.002028600000002712</v>
       </c>
       <c r="Y4" t="n">
         <v>8</v>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="X5" t="n">
-        <v>0.002692000000003247</v>
+        <v>0.002456399999999803</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="X6" t="n">
-        <v>0.002250699999997607</v>
+        <v>0.002035100000000511</v>
       </c>
       <c r="Y6" t="n">
         <v>8</v>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="X7" t="n">
-        <v>0.002410999999995056</v>
+        <v>0.002303300000001229</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="X8" t="n">
-        <v>0.002305599999999686</v>
+        <v>0.002110799999996971</v>
       </c>
       <c r="Y8" t="n">
         <v>8</v>
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="X9" t="n">
-        <v>0.002570799999993767</v>
+        <v>0.001780099999997731</v>
       </c>
       <c r="Y9" t="n">
         <v>7</v>
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="X10" t="n">
-        <v>0.002903600000003337</v>
+        <v>0.004280500000000131</v>
       </c>
       <c r="Y10" t="n">
         <v>11</v>
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="X11" t="n">
-        <v>0.001882600000001844</v>
+        <v>0.001778199999996843</v>
       </c>
       <c r="Y11" t="n">
         <v>7</v>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="X12" t="n">
-        <v>0.002288399999997637</v>
+        <v>0.001989699999995764</v>
       </c>
       <c r="Y12" t="n">
         <v>8</v>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="X13" t="n">
-        <v>0.001880200000002219</v>
+        <v>0.001860000000000639</v>
       </c>
       <c r="Y13" t="n">
         <v>7</v>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="X14" t="n">
-        <v>0.002250799999998776</v>
+        <v>0.001976600000006101</v>
       </c>
       <c r="Y14" t="n">
         <v>8</v>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="X15" t="n">
-        <v>0.002128100000000188</v>
+        <v>0.003574800000002654</v>
       </c>
       <c r="Y15" t="n">
         <v>8</v>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="X16" t="n">
-        <v>0.003205700000002309</v>
+        <v>0.002602400000000671</v>
       </c>
       <c r="Y16" t="n">
         <v>10</v>
@@ -1868,7 +1868,7 @@
         </is>
       </c>
       <c r="X17" t="n">
-        <v>0.002106200000000058</v>
+        <v>0.001980500000001939</v>
       </c>
       <c r="Y17" t="n">
         <v>8</v>
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="X18" t="n">
-        <v>0.002085999999998478</v>
+        <v>0.002039899999999761</v>
       </c>
       <c r="Y18" t="n">
         <v>8</v>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="X19" t="n">
-        <v>0.002372600000001057</v>
+        <v>0.0022591000000034</v>
       </c>
       <c r="Y19" t="n">
         <v>9</v>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="X20" t="n">
-        <v>0.002308599999999217</v>
+        <v>0.002277499999998156</v>
       </c>
       <c r="Y20" t="n">
         <v>9</v>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="X21" t="n">
-        <v>0.002652899999993963</v>
+        <v>0.001764900000004843</v>
       </c>
       <c r="Y21" t="n">
         <v>7</v>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="X22" t="n">
-        <v>0.002891800000000444</v>
+        <v>0.004598500000000172</v>
       </c>
       <c r="Y22" t="n">
         <v>11</v>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="X23" t="n">
-        <v>0.001820999999999628</v>
+        <v>0.001835100000000978</v>
       </c>
       <c r="Y23" t="n">
         <v>7</v>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="X24" t="n">
-        <v>0.001869599999999139</v>
+        <v>0.001755500000001575</v>
       </c>
       <c r="Y24" t="n">
         <v>7</v>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="X25" t="n">
-        <v>0.002813499999994917</v>
+        <v>0.00272359999999594</v>
       </c>
       <c r="Y25" t="n">
         <v>11</v>
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="X26" t="n">
-        <v>0.002639500000000794</v>
+        <v>0.001964100000002134</v>
       </c>
       <c r="Y26" t="n">
         <v>8</v>
@@ -2688,7 +2688,7 @@
         </is>
       </c>
       <c r="X27" t="n">
-        <v>0.002366799999997227</v>
+        <v>0.002236500000002195</v>
       </c>
       <c r="Y27" t="n">
         <v>9</v>
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="X28" t="n">
-        <v>0.003459399999997004</v>
+        <v>0.002226000000000283</v>
       </c>
       <c r="Y28" t="n">
         <v>9</v>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="X29" t="n">
-        <v>0.002596800000006283</v>
+        <v>0.004295800000001293</v>
       </c>
       <c r="Y29" t="n">
         <v>10</v>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="X30" t="n">
-        <v>0.00360040000000339</v>
+        <v>0.002205299999999966</v>
       </c>
       <c r="Y30" t="n">
         <v>9</v>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="X31" t="n">
-        <v>0.002196900000001278</v>
+        <v>0.004950700000001973</v>
       </c>
       <c r="Y31" t="n">
         <v>8</v>
@@ -3098,7 +3098,7 @@
         </is>
       </c>
       <c r="X32" t="n">
-        <v>0.002672699999997974</v>
+        <v>0.002343500000002052</v>
       </c>
       <c r="Y32" t="n">
         <v>9</v>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="X33" t="n">
-        <v>0.002662999999998306</v>
+        <v>0.002725199999993322</v>
       </c>
       <c r="Y33" t="n">
         <v>10</v>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="X34" t="n">
-        <v>0.002974299999998209</v>
+        <v>0.002106500000003564</v>
       </c>
       <c r="Y34" t="n">
         <v>8</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="X35" t="n">
-        <v>0.002184700000000817</v>
+        <v>0.002317600000004916</v>
       </c>
       <c r="Y35" t="n">
         <v>8</v>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="X36" t="n">
-        <v>0.00324780000000402</v>
+        <v>0.001781600000001049</v>
       </c>
       <c r="Y36" t="n">
         <v>7</v>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="X37" t="n">
-        <v>0.002191400000000954</v>
+        <v>0.002879399999997645</v>
       </c>
       <c r="Y37" t="n">
         <v>8</v>
@@ -3590,7 +3590,7 @@
         </is>
       </c>
       <c r="X38" t="n">
-        <v>0.002389999999998338</v>
+        <v>0.002330900000004021</v>
       </c>
       <c r="Y38" t="n">
         <v>9</v>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="X39" t="n">
-        <v>0.002268399999998394</v>
+        <v>0.002912500000000762</v>
       </c>
       <c r="Y39" t="n">
         <v>8</v>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="X40" t="n">
-        <v>0.002717799999999215</v>
+        <v>0.002562900000000923</v>
       </c>
       <c r="Y40" t="n">
         <v>10</v>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="X41" t="n">
-        <v>0.002648800000002893</v>
+        <v>0.002648099999994713</v>
       </c>
       <c r="Y41" t="n">
         <v>10</v>
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="X42" t="n">
-        <v>0.002128200000001357</v>
+        <v>0.002136499999998875</v>
       </c>
       <c r="Y42" t="n">
         <v>8</v>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="X43" t="n">
-        <v>0.00260279999999824</v>
+        <v>0.001954900000001203</v>
       </c>
       <c r="Y43" t="n">
         <v>8</v>
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="X44" t="n">
-        <v>0.002617099999994821</v>
+        <v>0.00262639999999692</v>
       </c>
       <c r="Y44" t="n">
         <v>10</v>
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="X45" t="n">
-        <v>0.001874799999995957</v>
+        <v>0.00179660000000581</v>
       </c>
       <c r="Y45" t="n">
         <v>7</v>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="X46" t="n">
-        <v>0.002421499999996968</v>
+        <v>0.003870299999995552</v>
       </c>
       <c r="Y46" t="n">
         <v>8</v>
@@ -4328,7 +4328,7 @@
         </is>
       </c>
       <c r="X47" t="n">
-        <v>0.001882999999999413</v>
+        <v>0.001830399999995791</v>
       </c>
       <c r="Y47" t="n">
         <v>7</v>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="X48" t="n">
-        <v>0.002538499999999999</v>
+        <v>0.002255599999998026</v>
       </c>
       <c r="Y48" t="n">
         <v>9</v>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="X49" t="n">
-        <v>0.0018913999999981</v>
+        <v>0.00191329999999823</v>
       </c>
       <c r="Y49" t="n">
         <v>7</v>
@@ -4574,7 +4574,7 @@
         </is>
       </c>
       <c r="X50" t="n">
-        <v>0.001868600000001663</v>
+        <v>0.001809299999997904</v>
       </c>
       <c r="Y50" t="n">
         <v>7</v>
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="X51" t="n">
-        <v>0.002163299999999424</v>
+        <v>0.002077700000000959</v>
       </c>
       <c r="Y51" t="n">
         <v>8</v>
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="X52" t="n">
-        <v>0.001886899999995251</v>
+        <v>0.001885899999997775</v>
       </c>
       <c r="Y52" t="n">
         <v>7</v>
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="X53" t="n">
-        <v>0.002613500000002489</v>
+        <v>0.00352399999999875</v>
       </c>
       <c r="Y53" t="n">
         <v>8</v>
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="X54" t="n">
-        <v>0.002125700000000563</v>
+        <v>0.002124799999997151</v>
       </c>
       <c r="Y54" t="n">
         <v>8</v>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="X55" t="n">
-        <v>0.002908699999998987</v>
+        <v>0.002334900000001028</v>
       </c>
       <c r="Y55" t="n">
         <v>9</v>
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="X56" t="n">
-        <v>0.002373300000002132</v>
+        <v>0.002393599999997775</v>
       </c>
       <c r="Y56" t="n">
         <v>9</v>
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="X57" t="n">
-        <v>0.001876799999998013</v>
+        <v>0.001791999999994687</v>
       </c>
       <c r="Y57" t="n">
         <v>7</v>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="X58" t="n">
-        <v>0.001909699999998793</v>
+        <v>0.002279200000003812</v>
       </c>
       <c r="Y58" t="n">
         <v>7</v>
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="X59" t="n">
-        <v>0.001877200000002688</v>
+        <v>0.001802099999999029</v>
       </c>
       <c r="Y59" t="n">
         <v>7</v>
@@ -5394,7 +5394,7 @@
         </is>
       </c>
       <c r="X60" t="n">
-        <v>0.002362400000002651</v>
+        <v>0.002366899999998395</v>
       </c>
       <c r="Y60" t="n">
         <v>9</v>
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="X61" t="n">
-        <v>0.002284599999995862</v>
+        <v>0.002157699999997931</v>
       </c>
       <c r="Y61" t="n">
         <v>8</v>
@@ -5558,7 +5558,7 @@
         </is>
       </c>
       <c r="X62" t="n">
-        <v>0.002205899999999872</v>
+        <v>0.002218499999997903</v>
       </c>
       <c r="Y62" t="n">
         <v>8</v>
@@ -5640,7 +5640,7 @@
         </is>
       </c>
       <c r="X63" t="n">
-        <v>0.002150299999996719</v>
+        <v>0.002095500000002914</v>
       </c>
       <c r="Y63" t="n">
         <v>8</v>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="X64" t="n">
-        <v>0.00187739999999792</v>
+        <v>0.001790599999999642</v>
       </c>
       <c r="Y64" t="n">
         <v>7</v>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="X65" t="n">
-        <v>0.003366400000004433</v>
+        <v>0.003988400000004333</v>
       </c>
       <c r="Y65" t="n">
         <v>9</v>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="X66" t="n">
-        <v>0.003163099999994756</v>
+        <v>0.002265299999997694</v>
       </c>
       <c r="Y66" t="n">
         <v>9</v>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="X67" t="n">
-        <v>0.002813799999998423</v>
+        <v>0.002046300000003498</v>
       </c>
       <c r="Y67" t="n">
         <v>8</v>
@@ -6050,7 +6050,7 @@
         </is>
       </c>
       <c r="X68" t="n">
-        <v>0.003539200000005849</v>
+        <v>0.00220600000000104</v>
       </c>
       <c r="Y68" t="n">
         <v>8</v>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="X69" t="n">
-        <v>0.005466499999997154</v>
+        <v>0.002661400000000924</v>
       </c>
       <c r="Y69" t="n">
         <v>11</v>
@@ -6214,7 +6214,7 @@
         </is>
       </c>
       <c r="X70" t="n">
-        <v>0.003725000000002865</v>
+        <v>0.002000400000000013</v>
       </c>
       <c r="Y70" t="n">
         <v>8</v>
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="X71" t="n">
-        <v>0.005478199999998878</v>
+        <v>0.002227499999996496</v>
       </c>
       <c r="Y71" t="n">
         <v>9</v>
@@ -6378,7 +6378,7 @@
         </is>
       </c>
       <c r="X72" t="n">
-        <v>0.002358399999998539</v>
+        <v>0.003844499999999584</v>
       </c>
       <c r="Y72" t="n">
         <v>9</v>
@@ -6460,7 +6460,7 @@
         </is>
       </c>
       <c r="X73" t="n">
-        <v>0.002910700000001043</v>
+        <v>0.002515199999997719</v>
       </c>
       <c r="Y73" t="n">
         <v>8</v>
@@ -6542,7 +6542,7 @@
         </is>
       </c>
       <c r="X74" t="n">
-        <v>0.001836199999999621</v>
+        <v>0.001857000000001108</v>
       </c>
       <c r="Y74" t="n">
         <v>7</v>
@@ -6624,7 +6624,7 @@
         </is>
       </c>
       <c r="X75" t="n">
-        <v>0.004937300000001699</v>
+        <v>0.002633499999994626</v>
       </c>
       <c r="Y75" t="n">
         <v>10</v>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="X76" t="n">
-        <v>0.002328300000002059</v>
+        <v>0.002355500000000177</v>
       </c>
       <c r="Y76" t="n">
         <v>9</v>
@@ -6788,7 +6788,7 @@
         </is>
       </c>
       <c r="X77" t="n">
-        <v>0.003141399999996963</v>
+        <v>0.002127100000002713</v>
       </c>
       <c r="Y77" t="n">
         <v>8</v>
@@ -6870,7 +6870,7 @@
         </is>
       </c>
       <c r="X78" t="n">
-        <v>0.00265380000000448</v>
+        <v>0.002463900000002184</v>
       </c>
       <c r="Y78" t="n">
         <v>10</v>
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="X79" t="n">
-        <v>0.00236349999999419</v>
+        <v>0.002933400000003417</v>
       </c>
       <c r="Y79" t="n">
         <v>9</v>
@@ -7034,7 +7034,7 @@
         </is>
       </c>
       <c r="X80" t="n">
-        <v>0.001922299999996824</v>
+        <v>0.001884199999999225</v>
       </c>
       <c r="Y80" t="n">
         <v>7</v>
@@ -7116,7 +7116,7 @@
         </is>
       </c>
       <c r="X81" t="n">
-        <v>0.002366899999998395</v>
+        <v>0.002425399999999911</v>
       </c>
       <c r="Y81" t="n">
         <v>9</v>
@@ -7198,7 +7198,7 @@
         </is>
       </c>
       <c r="X82" t="n">
-        <v>0.002799099999997168</v>
+        <v>0.002608199999997396</v>
       </c>
       <c r="Y82" t="n">
         <v>10</v>
@@ -7280,7 +7280,7 @@
         </is>
       </c>
       <c r="X83" t="n">
-        <v>0.002205899999999872</v>
+        <v>0.002015800000002343</v>
       </c>
       <c r="Y83" t="n">
         <v>8</v>
@@ -7362,7 +7362,7 @@
         </is>
       </c>
       <c r="X84" t="n">
-        <v>0.004632899999997164</v>
+        <v>0.002355999999998915</v>
       </c>
       <c r="Y84" t="n">
         <v>9</v>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="X85" t="n">
-        <v>0.00251169999999945</v>
+        <v>0.00230460000000221</v>
       </c>
       <c r="Y85" t="n">
         <v>9</v>
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="X86" t="n">
-        <v>0.003729499999998609</v>
+        <v>0.003268699999999569</v>
       </c>
       <c r="Y86" t="n">
         <v>7</v>
@@ -7608,7 +7608,7 @@
         </is>
       </c>
       <c r="X87" t="n">
-        <v>0.002640300000003037</v>
+        <v>0.002571499999994842</v>
       </c>
       <c r="Y87" t="n">
         <v>10</v>
@@ -7690,7 +7690,7 @@
         </is>
       </c>
       <c r="X88" t="n">
-        <v>0.003228300000003514</v>
+        <v>0.002139900000003081</v>
       </c>
       <c r="Y88" t="n">
         <v>8</v>
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="X89" t="n">
-        <v>0.00289309999999432</v>
+        <v>0.002780699999995306</v>
       </c>
       <c r="Y89" t="n">
         <v>11</v>
@@ -7854,7 +7854,7 @@
         </is>
       </c>
       <c r="X90" t="n">
-        <v>0.002385300000000257</v>
+        <v>0.00224510000000322</v>
       </c>
       <c r="Y90" t="n">
         <v>9</v>
@@ -7936,7 +7936,7 @@
         </is>
       </c>
       <c r="X91" t="n">
-        <v>0.001914199999994537</v>
+        <v>0.001841599999998778</v>
       </c>
       <c r="Y91" t="n">
         <v>7</v>
@@ -8018,7 +8018,7 @@
         </is>
       </c>
       <c r="X92" t="n">
-        <v>0.002219300000000146</v>
+        <v>0.002012100000001737</v>
       </c>
       <c r="Y92" t="n">
         <v>8</v>
@@ -8100,7 +8100,7 @@
         </is>
       </c>
       <c r="X93" t="n">
-        <v>0.002175300000004654</v>
+        <v>0.003548600000002011</v>
       </c>
       <c r="Y93" t="n">
         <v>8</v>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="X94" t="n">
-        <v>0.002593700000005583</v>
+        <v>0.00255690000000186</v>
       </c>
       <c r="Y94" t="n">
         <v>10</v>
@@ -8264,7 +8264,7 @@
         </is>
       </c>
       <c r="X95" t="n">
-        <v>0.003331200000005197</v>
+        <v>0.002537300000000187</v>
       </c>
       <c r="Y95" t="n">
         <v>10</v>
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="X96" t="n">
-        <v>0.002614899999997533</v>
+        <v>0.002594200000004321</v>
       </c>
       <c r="Y96" t="n">
         <v>10</v>
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="X97" t="n">
-        <v>0.002133600000000513</v>
+        <v>0.002189900000004741</v>
       </c>
       <c r="Y97" t="n">
         <v>8</v>
@@ -8510,7 +8510,7 @@
         </is>
       </c>
       <c r="X98" t="n">
-        <v>0.002406400000005249</v>
+        <v>0.002386899999997638</v>
       </c>
       <c r="Y98" t="n">
         <v>9</v>
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="X99" t="n">
-        <v>0.002946099999995511</v>
+        <v>0.00270450000000011</v>
       </c>
       <c r="Y99" t="n">
         <v>11</v>
@@ -8674,7 +8674,7 @@
         </is>
       </c>
       <c r="X100" t="n">
-        <v>0.002456799999997372</v>
+        <v>0.002413799999999355</v>
       </c>
       <c r="Y100" t="n">
         <v>9</v>
@@ -8756,7 +8756,7 @@
         </is>
       </c>
       <c r="X101" t="n">
-        <v>0.002411699999996131</v>
+        <v>0.002255099999999288</v>
       </c>
       <c r="Y101" t="n">
         <v>9</v>

--- a/tests/test1/d30/ЛМ, 0.1.xlsx
+++ b/tests/test1/d30/ЛМ, 0.1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="X2" t="n">
-        <v>0.002558700000001579</v>
+        <v>0.002936800000000517</v>
       </c>
       <c r="Y2" t="n">
         <v>10</v>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="X3" t="n">
-        <v>0.004254200000005426</v>
+        <v>0.003936300000006554</v>
       </c>
       <c r="Y3" t="n">
         <v>10</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="X4" t="n">
-        <v>0.002028600000002712</v>
+        <v>0.002216499999988741</v>
       </c>
       <c r="Y4" t="n">
         <v>8</v>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="X5" t="n">
-        <v>0.002456399999999803</v>
+        <v>0.004493099999990591</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="X6" t="n">
-        <v>0.002035100000000511</v>
+        <v>0.00222519999999804</v>
       </c>
       <c r="Y6" t="n">
         <v>8</v>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="X7" t="n">
-        <v>0.002303300000001229</v>
+        <v>0.002970899999994003</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="X8" t="n">
-        <v>0.002110799999996971</v>
+        <v>0.002220300000004727</v>
       </c>
       <c r="Y8" t="n">
         <v>8</v>
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="X9" t="n">
-        <v>0.001780099999997731</v>
+        <v>0.002561900000003448</v>
       </c>
       <c r="Y9" t="n">
         <v>7</v>
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="X10" t="n">
-        <v>0.004280500000000131</v>
+        <v>0.004530500000001325</v>
       </c>
       <c r="Y10" t="n">
         <v>11</v>
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="X11" t="n">
-        <v>0.001778199999996843</v>
+        <v>0.00262979999999402</v>
       </c>
       <c r="Y11" t="n">
         <v>7</v>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="X12" t="n">
-        <v>0.001989699999995764</v>
+        <v>0.002234900000004814</v>
       </c>
       <c r="Y12" t="n">
         <v>8</v>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="X13" t="n">
-        <v>0.001860000000000639</v>
+        <v>0.003756800000005001</v>
       </c>
       <c r="Y13" t="n">
         <v>7</v>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="X14" t="n">
-        <v>0.001976600000006101</v>
+        <v>0.002361600000000408</v>
       </c>
       <c r="Y14" t="n">
         <v>8</v>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="X15" t="n">
-        <v>0.003574800000002654</v>
+        <v>0.002229200000002152</v>
       </c>
       <c r="Y15" t="n">
         <v>8</v>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="X16" t="n">
-        <v>0.002602400000000671</v>
+        <v>0.002849499999996397</v>
       </c>
       <c r="Y16" t="n">
         <v>10</v>
@@ -1868,7 +1868,7 @@
         </is>
       </c>
       <c r="X17" t="n">
-        <v>0.001980500000001939</v>
+        <v>0.002231199999997102</v>
       </c>
       <c r="Y17" t="n">
         <v>8</v>
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="X18" t="n">
-        <v>0.002039899999999761</v>
+        <v>0.002312000000003422</v>
       </c>
       <c r="Y18" t="n">
         <v>8</v>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="X19" t="n">
-        <v>0.0022591000000034</v>
+        <v>0.002486900000008063</v>
       </c>
       <c r="Y19" t="n">
         <v>9</v>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="X20" t="n">
-        <v>0.002277499999998156</v>
+        <v>0.003125499999995895</v>
       </c>
       <c r="Y20" t="n">
         <v>9</v>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="X21" t="n">
-        <v>0.001764900000004843</v>
+        <v>0.001979400000010401</v>
       </c>
       <c r="Y21" t="n">
         <v>7</v>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="X22" t="n">
-        <v>0.004598500000000172</v>
+        <v>0.004608499999989135</v>
       </c>
       <c r="Y22" t="n">
         <v>11</v>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="X23" t="n">
-        <v>0.001835100000000978</v>
+        <v>0.002021800000008511</v>
       </c>
       <c r="Y23" t="n">
         <v>7</v>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="X24" t="n">
-        <v>0.001755500000001575</v>
+        <v>0.001982800000007501</v>
       </c>
       <c r="Y24" t="n">
         <v>7</v>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="X25" t="n">
-        <v>0.00272359999999594</v>
+        <v>0.005336099999993849</v>
       </c>
       <c r="Y25" t="n">
         <v>11</v>
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="X26" t="n">
-        <v>0.001964100000002134</v>
+        <v>0.002509900000006837</v>
       </c>
       <c r="Y26" t="n">
         <v>8</v>
@@ -2688,7 +2688,7 @@
         </is>
       </c>
       <c r="X27" t="n">
-        <v>0.002236500000002195</v>
+        <v>0.004359099999987848</v>
       </c>
       <c r="Y27" t="n">
         <v>9</v>
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="X28" t="n">
-        <v>0.002226000000000283</v>
+        <v>0.002519200000008937</v>
       </c>
       <c r="Y28" t="n">
         <v>9</v>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="X29" t="n">
-        <v>0.004295800000001293</v>
+        <v>0.004488500000007889</v>
       </c>
       <c r="Y29" t="n">
         <v>10</v>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="X30" t="n">
-        <v>0.002205299999999966</v>
+        <v>0.003454899999994154</v>
       </c>
       <c r="Y30" t="n">
         <v>9</v>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="X31" t="n">
-        <v>0.004950700000001973</v>
+        <v>0.002188900000007266</v>
       </c>
       <c r="Y31" t="n">
         <v>8</v>
@@ -3098,7 +3098,7 @@
         </is>
       </c>
       <c r="X32" t="n">
-        <v>0.002343500000002052</v>
+        <v>0.004006699999990815</v>
       </c>
       <c r="Y32" t="n">
         <v>9</v>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="X33" t="n">
-        <v>0.002725199999993322</v>
+        <v>0.002722099999999728</v>
       </c>
       <c r="Y33" t="n">
         <v>10</v>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="X34" t="n">
-        <v>0.002106500000003564</v>
+        <v>0.002252800000007937</v>
       </c>
       <c r="Y34" t="n">
         <v>8</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="X35" t="n">
-        <v>0.002317600000004916</v>
+        <v>0.002327399999998647</v>
       </c>
       <c r="Y35" t="n">
         <v>8</v>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="X36" t="n">
-        <v>0.001781600000001049</v>
+        <v>0.001994499999995014</v>
       </c>
       <c r="Y36" t="n">
         <v>7</v>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="X37" t="n">
-        <v>0.002879399999997645</v>
+        <v>0.002273299999998812</v>
       </c>
       <c r="Y37" t="n">
         <v>8</v>
@@ -3590,7 +3590,7 @@
         </is>
       </c>
       <c r="X38" t="n">
-        <v>0.002330900000004021</v>
+        <v>0.002676600000000917</v>
       </c>
       <c r="Y38" t="n">
         <v>9</v>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="X39" t="n">
-        <v>0.002912500000000762</v>
+        <v>0.002767300000002137</v>
       </c>
       <c r="Y39" t="n">
         <v>8</v>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="X40" t="n">
-        <v>0.002562900000000923</v>
+        <v>0.00298039999999844</v>
       </c>
       <c r="Y40" t="n">
         <v>10</v>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="X41" t="n">
-        <v>0.002648099999994713</v>
+        <v>0.004296500000009473</v>
       </c>
       <c r="Y41" t="n">
         <v>10</v>
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="X42" t="n">
-        <v>0.002136499999998875</v>
+        <v>0.002387600000005818</v>
       </c>
       <c r="Y42" t="n">
         <v>8</v>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="X43" t="n">
-        <v>0.001954900000001203</v>
+        <v>0.003860700000004158</v>
       </c>
       <c r="Y43" t="n">
         <v>8</v>
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="X44" t="n">
-        <v>0.00262639999999692</v>
+        <v>0.002725999999995565</v>
       </c>
       <c r="Y44" t="n">
         <v>10</v>
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="X45" t="n">
-        <v>0.00179660000000581</v>
+        <v>0.001923699999991868</v>
       </c>
       <c r="Y45" t="n">
         <v>7</v>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="X46" t="n">
-        <v>0.003870299999995552</v>
+        <v>0.002209400000012351</v>
       </c>
       <c r="Y46" t="n">
         <v>8</v>
@@ -4328,7 +4328,7 @@
         </is>
       </c>
       <c r="X47" t="n">
-        <v>0.001830399999995791</v>
+        <v>0.002004600000006462</v>
       </c>
       <c r="Y47" t="n">
         <v>7</v>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="X48" t="n">
-        <v>0.002255599999998026</v>
+        <v>0.002505599999992114</v>
       </c>
       <c r="Y48" t="n">
         <v>9</v>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="X49" t="n">
-        <v>0.00191329999999823</v>
+        <v>0.00190620000000763</v>
       </c>
       <c r="Y49" t="n">
         <v>7</v>
@@ -4574,7 +4574,7 @@
         </is>
       </c>
       <c r="X50" t="n">
-        <v>0.001809299999997904</v>
+        <v>0.003656900000009955</v>
       </c>
       <c r="Y50" t="n">
         <v>7</v>
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="X51" t="n">
-        <v>0.002077700000000959</v>
+        <v>0.002192399999998429</v>
       </c>
       <c r="Y51" t="n">
         <v>8</v>
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="X52" t="n">
-        <v>0.001885899999997775</v>
+        <v>0.001934899999994855</v>
       </c>
       <c r="Y52" t="n">
         <v>7</v>
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="X53" t="n">
-        <v>0.00352399999999875</v>
+        <v>0.002213499999996316</v>
       </c>
       <c r="Y53" t="n">
         <v>8</v>
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="X54" t="n">
-        <v>0.002124799999997151</v>
+        <v>0.002199399999994966</v>
       </c>
       <c r="Y54" t="n">
         <v>8</v>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="X55" t="n">
-        <v>0.002334900000001028</v>
+        <v>0.002549099999995974</v>
       </c>
       <c r="Y55" t="n">
         <v>9</v>
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="X56" t="n">
-        <v>0.002393599999997775</v>
+        <v>0.002422300000006317</v>
       </c>
       <c r="Y56" t="n">
         <v>9</v>
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="X57" t="n">
-        <v>0.001791999999994687</v>
+        <v>0.002421499999996968</v>
       </c>
       <c r="Y57" t="n">
         <v>7</v>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="X58" t="n">
-        <v>0.002279200000003812</v>
+        <v>0.001928199999994717</v>
       </c>
       <c r="Y58" t="n">
         <v>7</v>
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="X59" t="n">
-        <v>0.001802099999999029</v>
+        <v>0.001928999999989855</v>
       </c>
       <c r="Y59" t="n">
         <v>7</v>
@@ -5394,7 +5394,7 @@
         </is>
       </c>
       <c r="X60" t="n">
-        <v>0.002366899999998395</v>
+        <v>0.002489900000000489</v>
       </c>
       <c r="Y60" t="n">
         <v>9</v>
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="X61" t="n">
-        <v>0.002157699999997931</v>
+        <v>0.002164600000000405</v>
       </c>
       <c r="Y61" t="n">
         <v>8</v>
@@ -5558,7 +5558,7 @@
         </is>
       </c>
       <c r="X62" t="n">
-        <v>0.002218499999997903</v>
+        <v>0.002272300000001337</v>
       </c>
       <c r="Y62" t="n">
         <v>8</v>
@@ -5640,7 +5640,7 @@
         </is>
       </c>
       <c r="X63" t="n">
-        <v>0.002095500000002914</v>
+        <v>0.00216079999999863</v>
       </c>
       <c r="Y63" t="n">
         <v>8</v>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="X64" t="n">
-        <v>0.001790599999999642</v>
+        <v>0.002077400000004559</v>
       </c>
       <c r="Y64" t="n">
         <v>7</v>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="X65" t="n">
-        <v>0.003988400000004333</v>
+        <v>0.002549999999999386</v>
       </c>
       <c r="Y65" t="n">
         <v>9</v>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="X66" t="n">
-        <v>0.002265299999997694</v>
+        <v>0.004378899999991859</v>
       </c>
       <c r="Y66" t="n">
         <v>9</v>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="X67" t="n">
-        <v>0.002046300000003498</v>
+        <v>0.002297599999991462</v>
       </c>
       <c r="Y67" t="n">
         <v>8</v>
@@ -6050,7 +6050,7 @@
         </is>
       </c>
       <c r="X68" t="n">
-        <v>0.00220600000000104</v>
+        <v>0.002257200000002513</v>
       </c>
       <c r="Y68" t="n">
         <v>8</v>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="X69" t="n">
-        <v>0.002661400000000924</v>
+        <v>0.003034600000006549</v>
       </c>
       <c r="Y69" t="n">
         <v>11</v>
@@ -6214,7 +6214,7 @@
         </is>
       </c>
       <c r="X70" t="n">
-        <v>0.002000400000000013</v>
+        <v>0.002247299999993402</v>
       </c>
       <c r="Y70" t="n">
         <v>8</v>
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="X71" t="n">
-        <v>0.002227499999996496</v>
+        <v>0.002497899999994502</v>
       </c>
       <c r="Y71" t="n">
         <v>9</v>
@@ -6378,7 +6378,7 @@
         </is>
       </c>
       <c r="X72" t="n">
-        <v>0.003844499999999584</v>
+        <v>0.002495899999999551</v>
       </c>
       <c r="Y72" t="n">
         <v>9</v>
@@ -6460,7 +6460,7 @@
         </is>
       </c>
       <c r="X73" t="n">
-        <v>0.002515199999997719</v>
+        <v>0.002293800000003898</v>
       </c>
       <c r="Y73" t="n">
         <v>8</v>
@@ -6542,7 +6542,7 @@
         </is>
       </c>
       <c r="X74" t="n">
-        <v>0.001857000000001108</v>
+        <v>0.001996899999994639</v>
       </c>
       <c r="Y74" t="n">
         <v>7</v>
@@ -6624,7 +6624,7 @@
         </is>
       </c>
       <c r="X75" t="n">
-        <v>0.002633499999994626</v>
+        <v>0.004575700000003735</v>
       </c>
       <c r="Y75" t="n">
         <v>10</v>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="X76" t="n">
-        <v>0.002355500000000177</v>
+        <v>0.002672300000000405</v>
       </c>
       <c r="Y76" t="n">
         <v>9</v>
@@ -6788,7 +6788,7 @@
         </is>
       </c>
       <c r="X77" t="n">
-        <v>0.002127100000002713</v>
+        <v>0.004000500000003626</v>
       </c>
       <c r="Y77" t="n">
         <v>8</v>
@@ -6870,7 +6870,7 @@
         </is>
       </c>
       <c r="X78" t="n">
-        <v>0.002463900000002184</v>
+        <v>0.002873100000002182</v>
       </c>
       <c r="Y78" t="n">
         <v>10</v>
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="X79" t="n">
-        <v>0.002933400000003417</v>
+        <v>0.003507799999994177</v>
       </c>
       <c r="Y79" t="n">
         <v>9</v>
@@ -7034,7 +7034,7 @@
         </is>
       </c>
       <c r="X80" t="n">
-        <v>0.001884199999999225</v>
+        <v>0.002195000000000391</v>
       </c>
       <c r="Y80" t="n">
         <v>7</v>
@@ -7116,7 +7116,7 @@
         </is>
       </c>
       <c r="X81" t="n">
-        <v>0.002425399999999911</v>
+        <v>0.002456899999998541</v>
       </c>
       <c r="Y81" t="n">
         <v>9</v>
@@ -7198,7 +7198,7 @@
         </is>
       </c>
       <c r="X82" t="n">
-        <v>0.002608199999997396</v>
+        <v>0.002815900000001648</v>
       </c>
       <c r="Y82" t="n">
         <v>10</v>
@@ -7280,7 +7280,7 @@
         </is>
       </c>
       <c r="X83" t="n">
-        <v>0.002015800000002343</v>
+        <v>0.00218479999999488</v>
       </c>
       <c r="Y83" t="n">
         <v>8</v>
@@ -7362,7 +7362,7 @@
         </is>
       </c>
       <c r="X84" t="n">
-        <v>0.002355999999998915</v>
+        <v>0.002609100000000808</v>
       </c>
       <c r="Y84" t="n">
         <v>9</v>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="X85" t="n">
-        <v>0.00230460000000221</v>
+        <v>0.002571099999997273</v>
       </c>
       <c r="Y85" t="n">
         <v>9</v>
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="X86" t="n">
-        <v>0.003268699999999569</v>
+        <v>0.002327699999995048</v>
       </c>
       <c r="Y86" t="n">
         <v>7</v>
@@ -7608,7 +7608,7 @@
         </is>
       </c>
       <c r="X87" t="n">
-        <v>0.002571499999994842</v>
+        <v>0.002727399999997715</v>
       </c>
       <c r="Y87" t="n">
         <v>10</v>
@@ -7690,7 +7690,7 @@
         </is>
       </c>
       <c r="X88" t="n">
-        <v>0.002139900000003081</v>
+        <v>0.004113300000000208</v>
       </c>
       <c r="Y88" t="n">
         <v>8</v>
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="X89" t="n">
-        <v>0.002780699999995306</v>
+        <v>0.00299339999999404</v>
       </c>
       <c r="Y89" t="n">
         <v>11</v>
@@ -7854,7 +7854,7 @@
         </is>
       </c>
       <c r="X90" t="n">
-        <v>0.00224510000000322</v>
+        <v>0.004351499999998509</v>
       </c>
       <c r="Y90" t="n">
         <v>9</v>
@@ -7936,7 +7936,7 @@
         </is>
       </c>
       <c r="X91" t="n">
-        <v>0.001841599999998778</v>
+        <v>0.001977299999992965</v>
       </c>
       <c r="Y91" t="n">
         <v>7</v>
@@ -8018,7 +8018,7 @@
         </is>
       </c>
       <c r="X92" t="n">
-        <v>0.002012100000001737</v>
+        <v>0.002229599999992615</v>
       </c>
       <c r="Y92" t="n">
         <v>8</v>
@@ -8100,7 +8100,7 @@
         </is>
       </c>
       <c r="X93" t="n">
-        <v>0.003548600000002011</v>
+        <v>0.00233539999999266</v>
       </c>
       <c r="Y93" t="n">
         <v>8</v>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="X94" t="n">
-        <v>0.00255690000000186</v>
+        <v>0.002692199999998479</v>
       </c>
       <c r="Y94" t="n">
         <v>10</v>
@@ -8264,7 +8264,7 @@
         </is>
       </c>
       <c r="X95" t="n">
-        <v>0.002537300000000187</v>
+        <v>0.002898200000004181</v>
       </c>
       <c r="Y95" t="n">
         <v>10</v>
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="X96" t="n">
-        <v>0.002594200000004321</v>
+        <v>0.002752799999996114</v>
       </c>
       <c r="Y96" t="n">
         <v>10</v>
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="X97" t="n">
-        <v>0.002189900000004741</v>
+        <v>0.002296200000003523</v>
       </c>
       <c r="Y97" t="n">
         <v>8</v>
@@ -8510,7 +8510,7 @@
         </is>
       </c>
       <c r="X98" t="n">
-        <v>0.002386899999997638</v>
+        <v>0.002485200000009513</v>
       </c>
       <c r="Y98" t="n">
         <v>9</v>
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="X99" t="n">
-        <v>0.00270450000000011</v>
+        <v>0.004961100000002716</v>
       </c>
       <c r="Y99" t="n">
         <v>11</v>
@@ -8674,7 +8674,7 @@
         </is>
       </c>
       <c r="X100" t="n">
-        <v>0.002413799999999355</v>
+        <v>0.002469500000003677</v>
       </c>
       <c r="Y100" t="n">
         <v>9</v>
@@ -8756,7 +8756,7 @@
         </is>
       </c>
       <c r="X101" t="n">
-        <v>0.002255099999999288</v>
+        <v>0.004311299999997686</v>
       </c>
       <c r="Y101" t="n">
         <v>9</v>

--- a/tests/test1/d30/ЛМ, 0.1.xlsx
+++ b/tests/test1/d30/ЛМ, 0.1.xlsx
@@ -582,13 +582,13 @@
         <v>359.9768688809297</v>
       </c>
       <c r="F2" t="n">
-        <v>30.11494042260696</v>
+        <v>30.11494042260695</v>
       </c>
       <c r="G2" t="n">
         <v>98.53027946447119</v>
       </c>
       <c r="H2" t="n">
-        <v>11.67609188782648</v>
+        <v>11.67609188782647</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -612,25 +612,25 @@
         <v>30.56845331844406</v>
       </c>
       <c r="P2" t="n">
-        <v>29.52333841502803</v>
+        <v>29.52333841502802</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.007664804860594322</v>
+        <v>0.007664804860594027</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1501385233784876</v>
+        <v>0.1501385233784782</v>
       </c>
       <c r="S2" t="n">
-        <v>0.09116974904199913</v>
+        <v>0.09116974904199274</v>
       </c>
       <c r="T2" t="n">
-        <v>0.04346327833442698</v>
+        <v>0.04346327833442558</v>
       </c>
       <c r="U2" t="n">
-        <v>0.009986218631541354</v>
+        <v>0.009986218631541335</v>
       </c>
       <c r="V2" t="n">
-        <v>0.04358464910560547</v>
+        <v>0.0435846491056041</v>
       </c>
       <c r="W2" t="inlineStr">
         <is>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="X2" t="n">
-        <v>0.002936800000000517</v>
+        <v>0.002121299999998882</v>
       </c>
       <c r="Y2" t="n">
         <v>10</v>
@@ -664,7 +664,7 @@
         <v>0.001865403792569191</v>
       </c>
       <c r="F3" t="n">
-        <v>29.81910039084352</v>
+        <v>29.81910039084351</v>
       </c>
       <c r="G3" t="n">
         <v>75.13003187123235</v>
@@ -694,25 +694,25 @@
         <v>25.3172396531304</v>
       </c>
       <c r="P3" t="n">
-        <v>34.02245659489096</v>
+        <v>34.02245659489095</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.007724496872413917</v>
+        <v>0.007724496872413744</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1498205021082857</v>
+        <v>0.1498205021082874</v>
       </c>
       <c r="S3" t="n">
-        <v>0.08939162302261033</v>
+        <v>0.08939162302260945</v>
       </c>
       <c r="T3" t="n">
-        <v>0.07040532221140421</v>
+        <v>0.07040532221140197</v>
       </c>
       <c r="U3" t="n">
-        <v>0.009940392035138461</v>
+        <v>0.009940392035138405</v>
       </c>
       <c r="V3" t="n">
-        <v>0.04279708793450684</v>
+        <v>0.04279708793450757</v>
       </c>
       <c r="W3" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="X3" t="n">
-        <v>0.003936300000006554</v>
+        <v>0.002040099999998546</v>
       </c>
       <c r="Y3" t="n">
         <v>10</v>
@@ -749,7 +749,7 @@
         <v>30.11604845239203</v>
       </c>
       <c r="G4" t="n">
-        <v>81.40521160852927</v>
+        <v>81.40521160852926</v>
       </c>
       <c r="H4" t="n">
         <v>3.269129977071878</v>
@@ -779,22 +779,22 @@
         <v>28.5374175781206</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.006977852671337511</v>
+        <v>0.006977852671337727</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1130127485787631</v>
+        <v>0.1130127485787626</v>
       </c>
       <c r="S4" t="n">
-        <v>0.03607291799756129</v>
+        <v>0.03607291799756295</v>
       </c>
       <c r="T4" t="n">
-        <v>0.139058704594473</v>
+        <v>0.1390587045944783</v>
       </c>
       <c r="U4" t="n">
-        <v>0.01054894751258621</v>
+        <v>0.0105489475125862</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1144571409757028</v>
+        <v>0.1144571409757033</v>
       </c>
       <c r="W4" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="X4" t="n">
-        <v>0.002216499999988741</v>
+        <v>0.001636300000001256</v>
       </c>
       <c r="Y4" t="n">
         <v>8</v>
@@ -858,25 +858,25 @@
         <v>30.41072355724604</v>
       </c>
       <c r="P5" t="n">
-        <v>28.90522845551082</v>
+        <v>28.90522845551081</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.00750939302709425</v>
+        <v>0.007509393027093989</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1457034510944285</v>
+        <v>0.1457034510944448</v>
       </c>
       <c r="S5" t="n">
-        <v>0.08788855406653684</v>
+        <v>0.08788855406654278</v>
       </c>
       <c r="T5" t="n">
-        <v>0.04292183695406433</v>
+        <v>0.04292183695406181</v>
       </c>
       <c r="U5" t="n">
         <v>0.01044268282175087</v>
       </c>
       <c r="V5" t="n">
-        <v>0.05936720841664976</v>
+        <v>0.05936720841665075</v>
       </c>
       <c r="W5" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="X5" t="n">
-        <v>0.004493099999990591</v>
+        <v>0.002119799999999117</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
@@ -916,7 +916,7 @@
         <v>174.2094140033107</v>
       </c>
       <c r="H6" t="n">
-        <v>9.654321901458292</v>
+        <v>9.654321901458285</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -937,28 +937,28 @@
         <v>16.13813378453141</v>
       </c>
       <c r="O6" t="n">
-        <v>8.382686152981675</v>
+        <v>8.382686152981663</v>
       </c>
       <c r="P6" t="n">
         <v>16.04909071852291</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.005789913980214251</v>
+        <v>0.005789913980213963</v>
       </c>
       <c r="R6" t="n">
-        <v>0.08052799254252631</v>
+        <v>0.08052799254252574</v>
       </c>
       <c r="S6" t="n">
-        <v>0.01955765093592567</v>
+        <v>0.0195576509359246</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1143845191560562</v>
+        <v>0.1143845191560493</v>
       </c>
       <c r="U6" t="n">
-        <v>0.00940829021763717</v>
+        <v>0.009408290217637174</v>
       </c>
       <c r="V6" t="n">
-        <v>0.03992961014297453</v>
+        <v>0.0399296101429723</v>
       </c>
       <c r="W6" t="inlineStr">
         <is>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="X6" t="n">
-        <v>0.00222519999999804</v>
+        <v>0.001721299999999815</v>
       </c>
       <c r="Y6" t="n">
         <v>8</v>
@@ -992,13 +992,13 @@
         <v>359.9841689627521</v>
       </c>
       <c r="F7" t="n">
-        <v>30.13120222000921</v>
+        <v>30.1312022200092</v>
       </c>
       <c r="G7" t="n">
-        <v>39.8846726374803</v>
+        <v>39.88467263748029</v>
       </c>
       <c r="H7" t="n">
-        <v>13.59709319109524</v>
+        <v>13.59709319109525</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1022,25 +1022,25 @@
         <v>16.19172402519155</v>
       </c>
       <c r="P7" t="n">
-        <v>41.68872325035001</v>
+        <v>41.68872325035002</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.008002533937145173</v>
+        <v>0.008002533937144804</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1564691651675373</v>
+        <v>0.1564691651675198</v>
       </c>
       <c r="S7" t="n">
-        <v>0.07725899281939924</v>
+        <v>0.07725899281938847</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1402892927326149</v>
+        <v>0.1402892927326015</v>
       </c>
       <c r="U7" t="n">
-        <v>0.009592077140605837</v>
+        <v>0.009592077140605905</v>
       </c>
       <c r="V7" t="n">
-        <v>0.04400846916659948</v>
+        <v>0.04400846916660146</v>
       </c>
       <c r="W7" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="X7" t="n">
-        <v>0.002970899999994003</v>
+        <v>0.001901600000000059</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
@@ -1080,7 +1080,7 @@
         <v>161.2044860208493</v>
       </c>
       <c r="H8" t="n">
-        <v>7.061084750236801</v>
+        <v>7.0610847502368</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>19.8676358558312</v>
       </c>
       <c r="O8" t="n">
-        <v>11.42774610450279</v>
+        <v>11.42774610450281</v>
       </c>
       <c r="P8" t="n">
         <v>19.69927501666251</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.006421836381396063</v>
+        <v>0.006421836381396107</v>
       </c>
       <c r="R8" t="n">
-        <v>0.08651166300714321</v>
+        <v>0.08651166300714087</v>
       </c>
       <c r="S8" t="n">
-        <v>0.02815582504422214</v>
+        <v>0.02815582504422209</v>
       </c>
       <c r="T8" t="n">
-        <v>0.09951391966732399</v>
+        <v>0.09951391966732456</v>
       </c>
       <c r="U8" t="n">
-        <v>0.009286465496435829</v>
+        <v>0.009286465496435832</v>
       </c>
       <c r="V8" t="n">
-        <v>0.05542243510574082</v>
+        <v>0.0554224351057405</v>
       </c>
       <c r="W8" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="X8" t="n">
-        <v>0.002220300000004727</v>
+        <v>0.001739900000000461</v>
       </c>
       <c r="Y8" t="n">
         <v>8</v>
@@ -1159,10 +1159,10 @@
         <v>29.74260417967031</v>
       </c>
       <c r="G9" t="n">
-        <v>13.68854407396475</v>
+        <v>13.68854407396476</v>
       </c>
       <c r="H9" t="n">
-        <v>12.1336289062076</v>
+        <v>12.13362890620759</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1186,25 +1186,25 @@
         <v>6.389646324621058</v>
       </c>
       <c r="P9" t="n">
-        <v>41.53101889430517</v>
+        <v>41.53101889430516</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.007287827091928809</v>
+        <v>0.007287827091928852</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1627427098921448</v>
+        <v>0.1627427098921454</v>
       </c>
       <c r="S9" t="n">
-        <v>0.0378883356380351</v>
+        <v>0.03788833563803536</v>
       </c>
       <c r="T9" t="n">
-        <v>0.2548110289803716</v>
+        <v>0.2548110289803739</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009487198533772325</v>
+        <v>0.00948719853377232</v>
       </c>
       <c r="V9" t="n">
-        <v>0.07151083997383731</v>
+        <v>0.07151083997383974</v>
       </c>
       <c r="W9" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="X9" t="n">
-        <v>0.002561900000003448</v>
+        <v>0.00146490000000199</v>
       </c>
       <c r="Y9" t="n">
         <v>7</v>
@@ -1238,13 +1238,13 @@
         <v>359.9927244056314</v>
       </c>
       <c r="F10" t="n">
-        <v>30.12259276875183</v>
+        <v>30.12259276875182</v>
       </c>
       <c r="G10" t="n">
-        <v>157.0966340822866</v>
+        <v>157.0966340822867</v>
       </c>
       <c r="H10" t="n">
-        <v>14.67637563575674</v>
+        <v>14.67637563575673</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1268,25 +1268,25 @@
         <v>35.40762535759162</v>
       </c>
       <c r="P10" t="n">
-        <v>13.84335614134097</v>
+        <v>13.84335614134096</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.007006892025442417</v>
+        <v>0.007006892025443487</v>
       </c>
       <c r="R10" t="n">
-        <v>0.1228049613971238</v>
+        <v>0.1228049613971449</v>
       </c>
       <c r="S10" t="n">
-        <v>0.05282476808463549</v>
+        <v>0.05282476808464642</v>
       </c>
       <c r="T10" t="n">
-        <v>0.04354162418535222</v>
+        <v>0.04354162418535547</v>
       </c>
       <c r="U10" t="n">
-        <v>0.01094726751193068</v>
+        <v>0.01094726751193069</v>
       </c>
       <c r="V10" t="n">
-        <v>0.02410091027784441</v>
+        <v>0.02410091027784131</v>
       </c>
       <c r="W10" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="X10" t="n">
-        <v>0.004530500000001325</v>
+        <v>0.002259699999999754</v>
       </c>
       <c r="Y10" t="n">
         <v>11</v>
@@ -1353,19 +1353,19 @@
         <v>38.20706231208371</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.006029323517503278</v>
+        <v>0.006029323517503273</v>
       </c>
       <c r="R11" t="n">
-        <v>0.255189093139744</v>
+        <v>0.2551890931397455</v>
       </c>
       <c r="S11" t="n">
-        <v>0.01986932408186403</v>
+        <v>0.01986932408186393</v>
       </c>
       <c r="T11" t="n">
-        <v>0.4029143724756015</v>
+        <v>0.4029143724756026</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01047018808258845</v>
+        <v>0.01047018808258846</v>
       </c>
       <c r="V11" t="n">
         <v>0.04179972724834378</v>
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="X11" t="n">
-        <v>0.00262979999999402</v>
+        <v>0.001553499999999985</v>
       </c>
       <c r="Y11" t="n">
         <v>7</v>
@@ -1405,10 +1405,10 @@
         <v>30.01621468922874</v>
       </c>
       <c r="G12" t="n">
-        <v>138.9338126345483</v>
+        <v>138.9338126345482</v>
       </c>
       <c r="H12" t="n">
-        <v>3.2646603580366</v>
+        <v>3.264660358036597</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1435,22 +1435,22 @@
         <v>24.73059863425154</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.00654659333820605</v>
+        <v>0.006546593338206391</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1038107798424054</v>
+        <v>0.1038107798424037</v>
       </c>
       <c r="S12" t="n">
-        <v>0.02834481229853584</v>
+        <v>0.02834481229853711</v>
       </c>
       <c r="T12" t="n">
-        <v>0.1422727545816827</v>
+        <v>0.1422727545816917</v>
       </c>
       <c r="U12" t="n">
-        <v>0.008895953166322593</v>
+        <v>0.00889595316632257</v>
       </c>
       <c r="V12" t="n">
-        <v>0.01661360747055687</v>
+        <v>0.01661360747055272</v>
       </c>
       <c r="W12" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="X12" t="n">
-        <v>0.002234900000004814</v>
+        <v>0.001795300000001276</v>
       </c>
       <c r="Y12" t="n">
         <v>8</v>
@@ -1487,10 +1487,10 @@
         <v>29.7516095307216</v>
       </c>
       <c r="G13" t="n">
-        <v>32.11861886564944</v>
+        <v>32.11861886564947</v>
       </c>
       <c r="H13" t="n">
-        <v>3.188847148967409</v>
+        <v>3.188847148967406</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1517,22 +1517,22 @@
         <v>30.54508573033146</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.006545121528917639</v>
+        <v>0.006545121528917687</v>
       </c>
       <c r="R13" t="n">
-        <v>0.134349426400567</v>
+        <v>0.1343494264005653</v>
       </c>
       <c r="S13" t="n">
-        <v>0.02696110134762789</v>
+        <v>0.02696110134762803</v>
       </c>
       <c r="T13" t="n">
-        <v>0.2086548201071882</v>
+        <v>0.2086548201071894</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009629758766465447</v>
+        <v>0.009629758766465477</v>
       </c>
       <c r="V13" t="n">
-        <v>0.06530010944019596</v>
+        <v>0.06530010944019729</v>
       </c>
       <c r="W13" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="X13" t="n">
-        <v>0.003756800000005001</v>
+        <v>0.00153010000000009</v>
       </c>
       <c r="Y13" t="n">
         <v>7</v>
@@ -1566,10 +1566,10 @@
         <v>0.008933807974833516</v>
       </c>
       <c r="F14" t="n">
-        <v>30.20066257643495</v>
+        <v>30.20066257643494</v>
       </c>
       <c r="G14" t="n">
-        <v>27.66771163632383</v>
+        <v>27.66771163632382</v>
       </c>
       <c r="H14" t="n">
         <v>12.06154326451655</v>
@@ -1599,22 +1599,22 @@
         <v>41.16747384603057</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.007777125246419643</v>
+        <v>0.007777125246419092</v>
       </c>
       <c r="R14" t="n">
-        <v>0.1497174583303567</v>
+        <v>0.149717458330354</v>
       </c>
       <c r="S14" t="n">
-        <v>0.05597047014374687</v>
+        <v>0.05597047014374056</v>
       </c>
       <c r="T14" t="n">
-        <v>0.1793656322925839</v>
+        <v>0.1793656322925642</v>
       </c>
       <c r="U14" t="n">
         <v>0.01006965799395014</v>
       </c>
       <c r="V14" t="n">
-        <v>0.06002884315523069</v>
+        <v>0.06002884315523143</v>
       </c>
       <c r="W14" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="X14" t="n">
-        <v>0.002361600000000408</v>
+        <v>0.002535500000000468</v>
       </c>
       <c r="Y14" t="n">
         <v>8</v>
@@ -1654,7 +1654,7 @@
         <v>139.8201026098457</v>
       </c>
       <c r="H15" t="n">
-        <v>5.852643804362908</v>
+        <v>5.852643804362907</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1681,22 +1681,22 @@
         <v>22.78067519045778</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.006867749925339182</v>
+        <v>0.006867749925339022</v>
       </c>
       <c r="R15" t="n">
-        <v>0.09958344614223562</v>
+        <v>0.09958344614223133</v>
       </c>
       <c r="S15" t="n">
-        <v>0.03779371042936305</v>
+        <v>0.03779371042936</v>
       </c>
       <c r="T15" t="n">
-        <v>0.08684841851762942</v>
+        <v>0.08684841851762867</v>
       </c>
       <c r="U15" t="n">
-        <v>0.008772390498175039</v>
+        <v>0.008772390498175062</v>
       </c>
       <c r="V15" t="n">
-        <v>0.01169182785574295</v>
+        <v>0.01169182785574089</v>
       </c>
       <c r="W15" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="X15" t="n">
-        <v>0.002229200000002152</v>
+        <v>0.001732499999999249</v>
       </c>
       <c r="Y15" t="n">
         <v>8</v>
@@ -1733,7 +1733,7 @@
         <v>29.9535103759017</v>
       </c>
       <c r="G16" t="n">
-        <v>92.42700032328943</v>
+        <v>92.42700032328949</v>
       </c>
       <c r="H16" t="n">
         <v>12.25470432371812</v>
@@ -1760,25 +1760,25 @@
         <v>30.71696395963075</v>
       </c>
       <c r="P16" t="n">
-        <v>31.07407311837277</v>
+        <v>31.07407311837276</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.007650033962966676</v>
+        <v>0.00765003396296691</v>
       </c>
       <c r="R16" t="n">
-        <v>0.1532687225488605</v>
+        <v>0.1532687225489019</v>
       </c>
       <c r="S16" t="n">
-        <v>0.09666063328384455</v>
+        <v>0.09666063328386741</v>
       </c>
       <c r="T16" t="n">
-        <v>0.0463747797988178</v>
+        <v>0.04637477979881689</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01038725332128324</v>
+        <v>0.01038725332128322</v>
       </c>
       <c r="V16" t="n">
-        <v>0.009602204092099116</v>
+        <v>0.009602204092098989</v>
       </c>
       <c r="W16" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="X16" t="n">
-        <v>0.002849499999996397</v>
+        <v>0.002065899999998067</v>
       </c>
       <c r="Y16" t="n">
         <v>10</v>
@@ -1818,7 +1818,7 @@
         <v>152.9269224389317</v>
       </c>
       <c r="H17" t="n">
-        <v>5.152369538502946</v>
+        <v>5.152369538502953</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1842,25 +1842,25 @@
         <v>10.34017495966485</v>
       </c>
       <c r="P17" t="n">
-        <v>22.21401822124255</v>
+        <v>22.21401822124254</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.006522745359074051</v>
+        <v>0.006522745359073995</v>
       </c>
       <c r="R17" t="n">
-        <v>0.09405479067444125</v>
+        <v>0.09405479067444254</v>
       </c>
       <c r="S17" t="n">
-        <v>0.02901643773506265</v>
+        <v>0.02901643773506239</v>
       </c>
       <c r="T17" t="n">
-        <v>0.1163353526857025</v>
+        <v>0.116335352685702</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0100161561976722</v>
+        <v>0.01001615619767219</v>
       </c>
       <c r="V17" t="n">
-        <v>0.009503336359599032</v>
+        <v>0.009503336359602585</v>
       </c>
       <c r="W17" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
         </is>
       </c>
       <c r="X17" t="n">
-        <v>0.002231199999997102</v>
+        <v>0.002326400000001172</v>
       </c>
       <c r="Y17" t="n">
         <v>8</v>
@@ -1897,10 +1897,10 @@
         <v>29.73705224171834</v>
       </c>
       <c r="G18" t="n">
-        <v>40.37234945662455</v>
+        <v>40.37234945662458</v>
       </c>
       <c r="H18" t="n">
-        <v>9.095639895724879</v>
+        <v>9.095639895724867</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1924,25 +1924,25 @@
         <v>13.09464900954105</v>
       </c>
       <c r="P18" t="n">
-        <v>36.3821569457836</v>
+        <v>36.38215694578357</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.007533111370312461</v>
+        <v>0.007533111370312501</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1347820038251379</v>
+        <v>0.1347820038251423</v>
       </c>
       <c r="S18" t="n">
-        <v>0.0550535202141972</v>
+        <v>0.05505352021419927</v>
       </c>
       <c r="T18" t="n">
-        <v>0.1396945684511438</v>
+        <v>0.1396945684511454</v>
       </c>
       <c r="U18" t="n">
-        <v>0.008529121956332718</v>
+        <v>0.008529121956332725</v>
       </c>
       <c r="V18" t="n">
-        <v>0.07758789369285096</v>
+        <v>0.07758789369285631</v>
       </c>
       <c r="W18" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="X18" t="n">
-        <v>0.002312000000003422</v>
+        <v>0.001671300000001708</v>
       </c>
       <c r="Y18" t="n">
         <v>8</v>
@@ -2009,19 +2009,19 @@
         <v>35.74152896143556</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.007685782772933379</v>
+        <v>0.007685782772933304</v>
       </c>
       <c r="R19" t="n">
-        <v>0.1394353130435793</v>
+        <v>0.1394353130435656</v>
       </c>
       <c r="S19" t="n">
-        <v>0.06553752239563373</v>
+        <v>0.06553752239562778</v>
       </c>
       <c r="T19" t="n">
-        <v>0.1139945616805183</v>
+        <v>0.1139945616805158</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01030391711317497</v>
+        <v>0.01030391711317499</v>
       </c>
       <c r="V19" t="n">
         <v>0.04857309132091715</v>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="X19" t="n">
-        <v>0.002486900000008063</v>
+        <v>0.001765999999999934</v>
       </c>
       <c r="Y19" t="n">
         <v>9</v>
@@ -2058,13 +2058,13 @@
         <v>359.9666064865771</v>
       </c>
       <c r="F20" t="n">
-        <v>30.16828907507213</v>
+        <v>30.16828907507215</v>
       </c>
       <c r="G20" t="n">
         <v>116.4023645159162</v>
       </c>
       <c r="H20" t="n">
-        <v>9.14662352540148</v>
+        <v>9.146623525401489</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2088,25 +2088,25 @@
         <v>25.84967285752846</v>
       </c>
       <c r="P20" t="n">
-        <v>25.1918962932773</v>
+        <v>25.19189629327732</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.007412590071482308</v>
+        <v>0.007412590071482508</v>
       </c>
       <c r="R20" t="n">
-        <v>0.1299124934769431</v>
+        <v>0.1299124934769467</v>
       </c>
       <c r="S20" t="n">
-        <v>0.06631651557847643</v>
+        <v>0.06631651557847899</v>
       </c>
       <c r="T20" t="n">
-        <v>0.04714436732823989</v>
+        <v>0.04714436732824073</v>
       </c>
       <c r="U20" t="n">
-        <v>0.01021034969889712</v>
+        <v>0.01021034969889708</v>
       </c>
       <c r="V20" t="n">
-        <v>0.06285153138298746</v>
+        <v>0.06285153138299134</v>
       </c>
       <c r="W20" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="X20" t="n">
-        <v>0.003125499999995895</v>
+        <v>0.00182840000000084</v>
       </c>
       <c r="Y20" t="n">
         <v>9</v>
@@ -2143,10 +2143,10 @@
         <v>29.92387407728514</v>
       </c>
       <c r="G21" t="n">
-        <v>17.43912184643185</v>
+        <v>17.43912184643184</v>
       </c>
       <c r="H21" t="n">
-        <v>12.22564339807053</v>
+        <v>12.22564339807054</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2170,25 +2170,25 @@
         <v>7.677631089022062</v>
       </c>
       <c r="P21" t="n">
-        <v>41.67757650520212</v>
+        <v>41.67757650520213</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.007484512149303225</v>
+        <v>0.007484512149303236</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1554726340513556</v>
+        <v>0.1554726340513539</v>
       </c>
       <c r="S21" t="n">
-        <v>0.04321133203368569</v>
+        <v>0.04321133203368538</v>
       </c>
       <c r="T21" t="n">
         <v>0.2287162948675883</v>
       </c>
       <c r="U21" t="n">
-        <v>0.009648394925138172</v>
+        <v>0.009648394925138205</v>
       </c>
       <c r="V21" t="n">
-        <v>0.02316129588148955</v>
+        <v>0.02316129588149194</v>
       </c>
       <c r="W21" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="X21" t="n">
-        <v>0.001979400000010401</v>
+        <v>0.001647800000000643</v>
       </c>
       <c r="Y21" t="n">
         <v>7</v>
@@ -2222,7 +2222,7 @@
         <v>0.01276602702193673</v>
       </c>
       <c r="F22" t="n">
-        <v>29.79978924171883</v>
+        <v>29.79978924171884</v>
       </c>
       <c r="G22" t="n">
         <v>106.0394128519363</v>
@@ -2249,28 +2249,28 @@
         <v>28.53374266718802</v>
       </c>
       <c r="O22" t="n">
-        <v>36.72692638682638</v>
+        <v>36.72692638682637</v>
       </c>
       <c r="P22" t="n">
-        <v>28.27350106100626</v>
+        <v>28.27350106100628</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.007538004231374696</v>
+        <v>0.007538004231374675</v>
       </c>
       <c r="R22" t="n">
-        <v>0.1562440243710068</v>
+        <v>0.1562440243710014</v>
       </c>
       <c r="S22" t="n">
-        <v>0.1029235346227299</v>
+        <v>0.1029235346227263</v>
       </c>
       <c r="T22" t="n">
-        <v>0.03244803428930476</v>
+        <v>0.03244803428930497</v>
       </c>
       <c r="U22" t="n">
-        <v>0.00942163617453771</v>
+        <v>0.009421636174537742</v>
       </c>
       <c r="V22" t="n">
-        <v>0.04676233832281785</v>
+        <v>0.04676233832281605</v>
       </c>
       <c r="W22" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="X22" t="n">
-        <v>0.004608499999989135</v>
+        <v>0.002229100000000983</v>
       </c>
       <c r="Y22" t="n">
         <v>11</v>
@@ -2304,7 +2304,7 @@
         <v>359.9863051508823</v>
       </c>
       <c r="F23" t="n">
-        <v>30.19625527788243</v>
+        <v>30.19625527788244</v>
       </c>
       <c r="G23" t="n">
         <v>8.881822259669413</v>
@@ -2337,19 +2337,19 @@
         <v>35.63407566351209</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.006464097957009816</v>
+        <v>0.006464097957009834</v>
       </c>
       <c r="R23" t="n">
-        <v>0.1868507560420291</v>
+        <v>0.1868507560420303</v>
       </c>
       <c r="S23" t="n">
-        <v>0.02431636965261013</v>
+        <v>0.02431636965261001</v>
       </c>
       <c r="T23" t="n">
-        <v>0.3016458152049181</v>
+        <v>0.301645815204919</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0101293351843461</v>
+        <v>0.01012933518434609</v>
       </c>
       <c r="V23" t="n">
         <v>0.1337506074224638</v>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="X23" t="n">
-        <v>0.002021800000008511</v>
+        <v>0.001467300000001615</v>
       </c>
       <c r="Y23" t="n">
         <v>7</v>
@@ -2389,10 +2389,10 @@
         <v>30.18529410369487</v>
       </c>
       <c r="G24" t="n">
-        <v>38.15622916296248</v>
+        <v>38.15622916296245</v>
       </c>
       <c r="H24" t="n">
-        <v>8.671192840558403</v>
+        <v>8.671192840558408</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2419,22 +2419,22 @@
         <v>36.54988659190541</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.007583609654170202</v>
+        <v>0.007583609654170357</v>
       </c>
       <c r="R24" t="n">
-        <v>0.136854713391434</v>
+        <v>0.1368547133914328</v>
       </c>
       <c r="S24" t="n">
-        <v>0.0522361919900259</v>
+        <v>0.05223619199002633</v>
       </c>
       <c r="T24" t="n">
-        <v>0.150484900326021</v>
+        <v>0.1504849003260249</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01103160803425716</v>
+        <v>0.01103160803425719</v>
       </c>
       <c r="V24" t="n">
-        <v>0.05119800348414488</v>
+        <v>0.05119800348414266</v>
       </c>
       <c r="W24" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="X24" t="n">
-        <v>0.001982800000007501</v>
+        <v>0.001601199999999636</v>
       </c>
       <c r="Y24" t="n">
         <v>7</v>
@@ -2468,13 +2468,13 @@
         <v>359.9934859051875</v>
       </c>
       <c r="F25" t="n">
-        <v>29.94286843704177</v>
+        <v>29.94286843704175</v>
       </c>
       <c r="G25" t="n">
         <v>93.07342212347555</v>
       </c>
       <c r="H25" t="n">
-        <v>14.34695012150407</v>
+        <v>14.34695012150405</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2498,25 +2498,25 @@
         <v>34.81134892775951</v>
       </c>
       <c r="P25" t="n">
-        <v>32.15868286076157</v>
+        <v>32.15868286076154</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.007757766575781797</v>
+        <v>0.007757766575781973</v>
       </c>
       <c r="R25" t="n">
-        <v>0.1642018209332126</v>
+        <v>0.1642018209332177</v>
       </c>
       <c r="S25" t="n">
-        <v>0.1137860234089635</v>
+        <v>0.1137860234089681</v>
       </c>
       <c r="T25" t="n">
-        <v>0.0391874385868095</v>
+        <v>0.03918743858681033</v>
       </c>
       <c r="U25" t="n">
         <v>0.009161982666743366</v>
       </c>
       <c r="V25" t="n">
-        <v>0.009332113850170251</v>
+        <v>0.009332113850173886</v>
       </c>
       <c r="W25" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="X25" t="n">
-        <v>0.005336099999993849</v>
+        <v>0.002313300000000851</v>
       </c>
       <c r="Y25" t="n">
         <v>11</v>
@@ -2553,7 +2553,7 @@
         <v>29.92270567854466</v>
       </c>
       <c r="G26" t="n">
-        <v>172.5875262208592</v>
+        <v>172.5875262208593</v>
       </c>
       <c r="H26" t="n">
         <v>11.25012962870402</v>
@@ -2583,22 +2583,22 @@
         <v>14.2186995558095</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.005988922463568539</v>
+        <v>0.00598892246356843</v>
       </c>
       <c r="R26" t="n">
-        <v>0.07021487878609568</v>
+        <v>0.07021487878609466</v>
       </c>
       <c r="S26" t="n">
-        <v>0.02261853656633606</v>
+        <v>0.02261853656633537</v>
       </c>
       <c r="T26" t="n">
-        <v>0.08187967108482175</v>
+        <v>0.08187967108482049</v>
       </c>
       <c r="U26" t="n">
-        <v>0.00972421688103939</v>
+        <v>0.009724216881039407</v>
       </c>
       <c r="V26" t="n">
-        <v>0.04958691431975323</v>
+        <v>0.04958691431975232</v>
       </c>
       <c r="W26" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="X26" t="n">
-        <v>0.002509900000006837</v>
+        <v>0.001708300000000662</v>
       </c>
       <c r="Y26" t="n">
         <v>8</v>
@@ -2632,7 +2632,7 @@
         <v>0.002525166808614518</v>
       </c>
       <c r="F27" t="n">
-        <v>30.13213955938264</v>
+        <v>30.13213955938265</v>
       </c>
       <c r="G27" t="n">
         <v>156.566276378266</v>
@@ -2662,25 +2662,25 @@
         <v>19.90181251606516</v>
       </c>
       <c r="P27" t="n">
-        <v>17.51181859537359</v>
+        <v>17.5118185953736</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.006786202389057827</v>
+        <v>0.00678620238905815</v>
       </c>
       <c r="R27" t="n">
-        <v>0.09626355622242458</v>
+        <v>0.09626355622242591</v>
       </c>
       <c r="S27" t="n">
-        <v>0.03888649064209389</v>
+        <v>0.03888649064209548</v>
       </c>
       <c r="T27" t="n">
-        <v>0.05140134137636018</v>
+        <v>0.05140134137636249</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01068544617266618</v>
+        <v>0.01068544617266615</v>
       </c>
       <c r="V27" t="n">
-        <v>0.02618253972289522</v>
+        <v>0.02618253972289747</v>
       </c>
       <c r="W27" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         </is>
       </c>
       <c r="X27" t="n">
-        <v>0.004359099999987848</v>
+        <v>0.002104499999997955</v>
       </c>
       <c r="Y27" t="n">
         <v>9</v>
@@ -2714,13 +2714,13 @@
         <v>0.006861370776245415</v>
       </c>
       <c r="F28" t="n">
-        <v>30.02191830450131</v>
+        <v>30.02191830450133</v>
       </c>
       <c r="G28" t="n">
-        <v>55.76982548156666</v>
+        <v>55.76982548156664</v>
       </c>
       <c r="H28" t="n">
-        <v>9.176057180324184</v>
+        <v>9.176057180324197</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2744,25 +2744,25 @@
         <v>17.00867925652922</v>
       </c>
       <c r="P28" t="n">
-        <v>35.13645457270007</v>
+        <v>35.13645457270011</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.007665798392934515</v>
+        <v>0.007665798392934671</v>
       </c>
       <c r="R28" t="n">
-        <v>0.1389364321309244</v>
+        <v>0.1389364321309311</v>
       </c>
       <c r="S28" t="n">
-        <v>0.06582255195307748</v>
+        <v>0.06582255195308144</v>
       </c>
       <c r="T28" t="n">
-        <v>0.1093700142688575</v>
+        <v>0.1093700142688612</v>
       </c>
       <c r="U28" t="n">
-        <v>0.009601550752659352</v>
+        <v>0.009601550752659354</v>
       </c>
       <c r="V28" t="n">
-        <v>0.02977109359695731</v>
+        <v>0.02977109359695155</v>
       </c>
       <c r="W28" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="X28" t="n">
-        <v>0.002519200000008937</v>
+        <v>0.001818600000000004</v>
       </c>
       <c r="Y28" t="n">
         <v>9</v>
@@ -2796,13 +2796,13 @@
         <v>359.978496873655</v>
       </c>
       <c r="F29" t="n">
-        <v>30.03456462337136</v>
+        <v>30.03456462337138</v>
       </c>
       <c r="G29" t="n">
-        <v>76.43908724586913</v>
+        <v>76.43908724586912</v>
       </c>
       <c r="H29" t="n">
-        <v>12.84718840553835</v>
+        <v>12.84718840553837</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2826,25 +2826,25 @@
         <v>27.48723684755452</v>
       </c>
       <c r="P29" t="n">
-        <v>34.98207268270767</v>
+        <v>34.9820726827077</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.007866988815732551</v>
+        <v>0.007866988815732492</v>
       </c>
       <c r="R29" t="n">
-        <v>0.1582407120635682</v>
+        <v>0.1582407120635743</v>
       </c>
       <c r="S29" t="n">
-        <v>0.1002605029684898</v>
+        <v>0.1002605029684927</v>
       </c>
       <c r="T29" t="n">
-        <v>0.06611994432567302</v>
+        <v>0.06611994432567248</v>
       </c>
       <c r="U29" t="n">
-        <v>0.01035141252605754</v>
+        <v>0.01035141252605751</v>
       </c>
       <c r="V29" t="n">
-        <v>0.02710673276874901</v>
+        <v>0.02710673276875455</v>
       </c>
       <c r="W29" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="X29" t="n">
-        <v>0.004488500000007889</v>
+        <v>0.002055200000000923</v>
       </c>
       <c r="Y29" t="n">
         <v>10</v>
@@ -2884,7 +2884,7 @@
         <v>131.1218855181202</v>
       </c>
       <c r="H30" t="n">
-        <v>9.730832993287244</v>
+        <v>9.730832993287246</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2911,22 +2911,22 @@
         <v>22.07739652570874</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.007199432593687889</v>
+        <v>0.007199432593687313</v>
       </c>
       <c r="R30" t="n">
-        <v>0.122452896092396</v>
+        <v>0.1224528960923873</v>
       </c>
       <c r="S30" t="n">
-        <v>0.06001297885470606</v>
+        <v>0.06001297885469821</v>
       </c>
       <c r="T30" t="n">
-        <v>0.04080425596738486</v>
+        <v>0.04080425596738579</v>
       </c>
       <c r="U30" t="n">
-        <v>0.009583894220634832</v>
+        <v>0.009583894220634818</v>
       </c>
       <c r="V30" t="n">
-        <v>0.005601121004716101</v>
+        <v>0.005601121004715645</v>
       </c>
       <c r="W30" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="X30" t="n">
-        <v>0.003454899999994154</v>
+        <v>0.002746500000000651</v>
       </c>
       <c r="Y30" t="n">
         <v>9</v>
@@ -2966,7 +2966,7 @@
         <v>154.7791231400383</v>
       </c>
       <c r="H31" t="n">
-        <v>6.343258141861758</v>
+        <v>6.343258141861757</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2993,22 +2993,22 @@
         <v>21.02578118677026</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.006599691888700637</v>
+        <v>0.006599691888700404</v>
       </c>
       <c r="R31" t="n">
-        <v>0.09129800253334579</v>
+        <v>0.0912980025333458</v>
       </c>
       <c r="S31" t="n">
-        <v>0.03101858434336101</v>
+        <v>0.03101858434335901</v>
       </c>
       <c r="T31" t="n">
-        <v>0.09820505359434646</v>
+        <v>0.09820505359434215</v>
       </c>
       <c r="U31" t="n">
-        <v>0.010057104907272</v>
+        <v>0.01005710490727197</v>
       </c>
       <c r="V31" t="n">
-        <v>0.06353818792455859</v>
+        <v>0.06353818792455956</v>
       </c>
       <c r="W31" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="X31" t="n">
-        <v>0.002188900000007266</v>
+        <v>0.001635799999998966</v>
       </c>
       <c r="Y31" t="n">
         <v>8</v>
@@ -3042,13 +3042,13 @@
         <v>0.009605197304935989</v>
       </c>
       <c r="F32" t="n">
-        <v>29.85861741968311</v>
+        <v>29.85861741968312</v>
       </c>
       <c r="G32" t="n">
         <v>116.1237969770793</v>
       </c>
       <c r="H32" t="n">
-        <v>7.51790987849213</v>
+        <v>7.517909878492135</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3072,25 +3072,25 @@
         <v>21.73210724806131</v>
       </c>
       <c r="P32" t="n">
-        <v>25.05043642381186</v>
+        <v>25.05043642381189</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.00721490086213748</v>
+        <v>0.00721490086213682</v>
       </c>
       <c r="R32" t="n">
-        <v>0.1191433460650598</v>
+        <v>0.1191433460650374</v>
       </c>
       <c r="S32" t="n">
-        <v>0.05637320160469309</v>
+        <v>0.05637320160468091</v>
       </c>
       <c r="T32" t="n">
-        <v>0.05916772473926034</v>
+        <v>0.05916772473925679</v>
       </c>
       <c r="U32" t="n">
-        <v>0.009937523255416705</v>
+        <v>0.009937523255416631</v>
       </c>
       <c r="V32" t="n">
-        <v>0.03496742779257988</v>
+        <v>0.03496742779257553</v>
       </c>
       <c r="W32" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         </is>
       </c>
       <c r="X32" t="n">
-        <v>0.004006699999990815</v>
+        <v>0.001910099999999915</v>
       </c>
       <c r="Y32" t="n">
         <v>9</v>
@@ -3124,7 +3124,7 @@
         <v>0.01728587844395061</v>
       </c>
       <c r="F33" t="n">
-        <v>29.88493142150746</v>
+        <v>29.88493142150748</v>
       </c>
       <c r="G33" t="n">
         <v>51.38040155044941</v>
@@ -3154,25 +3154,25 @@
         <v>21.12734239623698</v>
       </c>
       <c r="P33" t="n">
-        <v>40.82600263669145</v>
+        <v>40.82600263669147</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.007983541717128501</v>
+        <v>0.007983541717128699</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1609164151682123</v>
+        <v>0.1609164151682314</v>
       </c>
       <c r="S33" t="n">
-        <v>0.09461666533959286</v>
+        <v>0.09461666533960403</v>
       </c>
       <c r="T33" t="n">
-        <v>0.1119735863557983</v>
+        <v>0.1119735863558055</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01025432521273037</v>
+        <v>0.01025432521273033</v>
       </c>
       <c r="V33" t="n">
-        <v>0.02441324357155061</v>
+        <v>0.02441324357154852</v>
       </c>
       <c r="W33" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="X33" t="n">
-        <v>0.002722099999999728</v>
+        <v>0.002697300000001235</v>
       </c>
       <c r="Y33" t="n">
         <v>10</v>
@@ -3212,7 +3212,7 @@
         <v>154.2767023338776</v>
       </c>
       <c r="H34" t="n">
-        <v>7.407994422049865</v>
+        <v>7.407994422049863</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3233,28 +3233,28 @@
         <v>19.92527519173688</v>
       </c>
       <c r="O34" t="n">
-        <v>14.57596497141571</v>
+        <v>14.57596497141573</v>
       </c>
       <c r="P34" t="n">
-        <v>19.94990494446129</v>
+        <v>19.94990494446128</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.006663418040765212</v>
+        <v>0.006663418040765453</v>
       </c>
       <c r="R34" t="n">
-        <v>0.09089661122944052</v>
+        <v>0.09089661122944012</v>
       </c>
       <c r="S34" t="n">
-        <v>0.03384711589594093</v>
+        <v>0.0338471158959421</v>
       </c>
       <c r="T34" t="n">
-        <v>0.0791595712896595</v>
+        <v>0.07915957128966289</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0101034744173952</v>
+        <v>0.01010347441739523</v>
       </c>
       <c r="V34" t="n">
-        <v>0.03341599259387249</v>
+        <v>0.03341599259387279</v>
       </c>
       <c r="W34" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="X34" t="n">
-        <v>0.002252800000007937</v>
+        <v>0.001636099999998919</v>
       </c>
       <c r="Y34" t="n">
         <v>8</v>
@@ -3291,10 +3291,10 @@
         <v>29.9519982164724</v>
       </c>
       <c r="G35" t="n">
-        <v>45.68823498226993</v>
+        <v>45.68823498226991</v>
       </c>
       <c r="H35" t="n">
-        <v>8.132597348242086</v>
+        <v>8.132597348242088</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3321,22 +3321,22 @@
         <v>35.11639798242382</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.007518353337989696</v>
+        <v>0.007518353337989838</v>
       </c>
       <c r="R35" t="n">
-        <v>0.1328931264110245</v>
+        <v>0.132893126411018</v>
       </c>
       <c r="S35" t="n">
-        <v>0.05433155384096744</v>
+        <v>0.0543315538409657</v>
       </c>
       <c r="T35" t="n">
-        <v>0.1325681556471271</v>
+        <v>0.1325681556471291</v>
       </c>
       <c r="U35" t="n">
-        <v>0.009601011127261369</v>
+        <v>0.009601011127261399</v>
       </c>
       <c r="V35" t="n">
-        <v>0.1229495249761789</v>
+        <v>0.1229495249761777</v>
       </c>
       <c r="W35" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="X35" t="n">
-        <v>0.002327399999998647</v>
+        <v>0.001638199999998591</v>
       </c>
       <c r="Y35" t="n">
         <v>8</v>
@@ -3376,7 +3376,7 @@
         <v>7.057548420355878</v>
       </c>
       <c r="H36" t="n">
-        <v>12.21903537218793</v>
+        <v>12.21903537218792</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3400,25 +3400,25 @@
         <v>4.042174395489048</v>
       </c>
       <c r="P36" t="n">
-        <v>42.12983211635384</v>
+        <v>42.12983211635383</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.006908387017642726</v>
+        <v>0.006908387017642801</v>
       </c>
       <c r="R36" t="n">
-        <v>0.2041147669177195</v>
+        <v>0.2041147669177212</v>
       </c>
       <c r="S36" t="n">
-        <v>0.0292358967839428</v>
+        <v>0.02923589678394293</v>
       </c>
       <c r="T36" t="n">
-        <v>0.3369447738416765</v>
+        <v>0.3369447738416819</v>
       </c>
       <c r="U36" t="n">
-        <v>0.00955345548193679</v>
+        <v>0.009553455481936765</v>
       </c>
       <c r="V36" t="n">
-        <v>0.03918998607158402</v>
+        <v>0.03918998607158537</v>
       </c>
       <c r="W36" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="X36" t="n">
-        <v>0.001994499999995014</v>
+        <v>0.001436399999999338</v>
       </c>
       <c r="Y36" t="n">
         <v>7</v>
@@ -3452,13 +3452,13 @@
         <v>359.9931834817342</v>
       </c>
       <c r="F37" t="n">
-        <v>30.04326565750138</v>
+        <v>30.04326565750137</v>
       </c>
       <c r="G37" t="n">
-        <v>82.67814693209864</v>
+        <v>82.67814693209868</v>
       </c>
       <c r="H37" t="n">
-        <v>6.716111840720063</v>
+        <v>6.716111840720057</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3479,28 +3479,28 @@
         <v>29.87298333979204</v>
       </c>
       <c r="O37" t="n">
-        <v>17.84546960646783</v>
+        <v>17.84546960646784</v>
       </c>
       <c r="P37" t="n">
-        <v>29.89222787790808</v>
+        <v>29.89222787790807</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.007428550975760416</v>
+        <v>0.007428550975760547</v>
       </c>
       <c r="R37" t="n">
-        <v>0.1260574853725769</v>
+        <v>0.1260574853725684</v>
       </c>
       <c r="S37" t="n">
-        <v>0.05755125331103537</v>
+        <v>0.0575512533110331</v>
       </c>
       <c r="T37" t="n">
-        <v>0.08774447187807177</v>
+        <v>0.08774447187807446</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01043712639935834</v>
+        <v>0.01043712639935835</v>
       </c>
       <c r="V37" t="n">
-        <v>0.01957808308565967</v>
+        <v>0.01957808308565798</v>
       </c>
       <c r="W37" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="X37" t="n">
-        <v>0.002273299999998812</v>
+        <v>0.001727699999999999</v>
       </c>
       <c r="Y37" t="n">
         <v>8</v>
@@ -3534,13 +3534,13 @@
         <v>0.009501982732503696</v>
       </c>
       <c r="F38" t="n">
-        <v>29.89650047826457</v>
+        <v>29.89650047826459</v>
       </c>
       <c r="G38" t="n">
         <v>131.338231553335</v>
       </c>
       <c r="H38" t="n">
-        <v>10.18163214782713</v>
+        <v>10.18163214782714</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3564,25 +3564,25 @@
         <v>28.31236422442289</v>
       </c>
       <c r="P38" t="n">
-        <v>21.82040719728598</v>
+        <v>21.820407197286</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.007176544027689701</v>
+        <v>0.007176544027690493</v>
       </c>
       <c r="R38" t="n">
-        <v>0.1239799953240075</v>
+        <v>0.1239799953240433</v>
       </c>
       <c r="S38" t="n">
-        <v>0.06199493119568465</v>
+        <v>0.0619949311957021</v>
       </c>
       <c r="T38" t="n">
         <v>0.03814734473167322</v>
       </c>
       <c r="U38" t="n">
-        <v>0.01105908314262562</v>
+        <v>0.01105908314262563</v>
       </c>
       <c r="V38" t="n">
-        <v>0.02402588165545375</v>
+        <v>0.02402588165545022</v>
       </c>
       <c r="W38" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         </is>
       </c>
       <c r="X38" t="n">
-        <v>0.002676600000000917</v>
+        <v>0.001830399999999344</v>
       </c>
       <c r="Y38" t="n">
         <v>9</v>
@@ -3643,25 +3643,25 @@
         <v>17.50763382333646</v>
       </c>
       <c r="O39" t="n">
-        <v>9.738681280512703</v>
+        <v>9.738681280512715</v>
       </c>
       <c r="P39" t="n">
         <v>17.74021107738672</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.006113952814933565</v>
+        <v>0.006113952814933592</v>
       </c>
       <c r="R39" t="n">
-        <v>0.08197815908460582</v>
+        <v>0.08197815908460448</v>
       </c>
       <c r="S39" t="n">
-        <v>0.02333452440961853</v>
+        <v>0.02333452440961879</v>
       </c>
       <c r="T39" t="n">
         <v>0.1076908440399978</v>
       </c>
       <c r="U39" t="n">
-        <v>0.009651103040633503</v>
+        <v>0.00965110304063351</v>
       </c>
       <c r="V39" t="n">
         <v>0.07929265384546474</v>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="X39" t="n">
-        <v>0.002767300000002137</v>
+        <v>0.001927399999999579</v>
       </c>
       <c r="Y39" t="n">
         <v>8</v>
@@ -3698,13 +3698,13 @@
         <v>359.9779262398303</v>
       </c>
       <c r="F40" t="n">
-        <v>30.07481455705028</v>
+        <v>30.07481455705027</v>
       </c>
       <c r="G40" t="n">
-        <v>69.22510865615867</v>
+        <v>69.2251086561587</v>
       </c>
       <c r="H40" t="n">
-        <v>13.3834120381362</v>
+        <v>13.38341203813619</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3728,25 +3728,25 @@
         <v>26.00560951118506</v>
       </c>
       <c r="P40" t="n">
-        <v>36.88999155591719</v>
+        <v>36.88999155591718</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.007948044060706927</v>
+        <v>0.007948044060707107</v>
       </c>
       <c r="R40" t="n">
-        <v>0.1608947842716921</v>
+        <v>0.1608947842716776</v>
       </c>
       <c r="S40" t="n">
-        <v>0.1015799049842379</v>
+        <v>0.101579904984232</v>
       </c>
       <c r="T40" t="n">
-        <v>0.07748283035412737</v>
+        <v>0.07748283035412873</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01062774010842219</v>
+        <v>0.01062774010842221</v>
       </c>
       <c r="V40" t="n">
-        <v>0.02107192013818751</v>
+        <v>0.02107192013818412</v>
       </c>
       <c r="W40" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="X40" t="n">
-        <v>0.00298039999999844</v>
+        <v>0.002218599999999071</v>
       </c>
       <c r="Y40" t="n">
         <v>10</v>
@@ -3780,7 +3780,7 @@
         <v>0.0004302058282049332</v>
       </c>
       <c r="F41" t="n">
-        <v>29.87298757258236</v>
+        <v>29.87298757258235</v>
       </c>
       <c r="G41" t="n">
         <v>98.40748744057375</v>
@@ -3810,25 +3810,25 @@
         <v>32.59305300351006</v>
       </c>
       <c r="P41" t="n">
-        <v>29.74586418524024</v>
+        <v>29.74586418524023</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.007608965685799423</v>
+        <v>0.007608965685799838</v>
       </c>
       <c r="R41" t="n">
-        <v>0.152666588112108</v>
+        <v>0.1526665881121304</v>
       </c>
       <c r="S41" t="n">
-        <v>0.09715915271330448</v>
+        <v>0.09715915271331903</v>
       </c>
       <c r="T41" t="n">
-        <v>0.03967022309120993</v>
+        <v>0.03967022309121021</v>
       </c>
       <c r="U41" t="n">
-        <v>0.01044450024656194</v>
+        <v>0.01044450024656195</v>
       </c>
       <c r="V41" t="n">
-        <v>0.02264229664574037</v>
+        <v>0.02264229664574092</v>
       </c>
       <c r="W41" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="X41" t="n">
-        <v>0.004296500000009473</v>
+        <v>0.002058399999999239</v>
       </c>
       <c r="Y41" t="n">
         <v>10</v>
@@ -3865,10 +3865,10 @@
         <v>30.051906773892</v>
       </c>
       <c r="G42" t="n">
-        <v>71.37595597840162</v>
+        <v>71.37595597840159</v>
       </c>
       <c r="H42" t="n">
-        <v>3.741995709264174</v>
+        <v>3.741995709264175</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3892,25 +3892,25 @@
         <v>10.6398363107705</v>
       </c>
       <c r="P42" t="n">
-        <v>29.37461473320858</v>
+        <v>29.37461473320859</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.007052180851369856</v>
+        <v>0.007052180851370033</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1149969039396686</v>
+        <v>0.1149969039396678</v>
       </c>
       <c r="S42" t="n">
-        <v>0.03813455249924028</v>
+        <v>0.03813455249924082</v>
       </c>
       <c r="T42" t="n">
-        <v>0.1370970201426837</v>
+        <v>0.137097020142688</v>
       </c>
       <c r="U42" t="n">
-        <v>0.009688805662773418</v>
+        <v>0.009688805662773395</v>
       </c>
       <c r="V42" t="n">
-        <v>0.1180642825993339</v>
+        <v>0.1180642825993351</v>
       </c>
       <c r="W42" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="X42" t="n">
-        <v>0.002387600000005818</v>
+        <v>0.001689499999997679</v>
       </c>
       <c r="Y42" t="n">
         <v>8</v>
@@ -3944,13 +3944,13 @@
         <v>0.02457117013180803</v>
       </c>
       <c r="F43" t="n">
-        <v>29.9876745981945</v>
+        <v>29.98767459819449</v>
       </c>
       <c r="G43" t="n">
-        <v>48.27553487330987</v>
+        <v>48.27553487330977</v>
       </c>
       <c r="H43" t="n">
-        <v>3.296644717909655</v>
+        <v>3.296644717909661</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3974,25 +3974,25 @@
         <v>7.848366813714341</v>
       </c>
       <c r="P43" t="n">
-        <v>30.28791335130122</v>
+        <v>30.28791335130123</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.006841262125503513</v>
+        <v>0.00684126212550369</v>
       </c>
       <c r="R43" t="n">
-        <v>0.1224314275690783</v>
+        <v>0.1224314275690795</v>
       </c>
       <c r="S43" t="n">
-        <v>0.03181589560510977</v>
+        <v>0.03181589560511083</v>
       </c>
       <c r="T43" t="n">
-        <v>0.1758500829752442</v>
+        <v>0.1758500829752504</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01002217873001362</v>
+        <v>0.01002217873001361</v>
       </c>
       <c r="V43" t="n">
-        <v>0.2817593929527543</v>
+        <v>0.2817593929527468</v>
       </c>
       <c r="W43" t="inlineStr">
         <is>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="X43" t="n">
-        <v>0.003860700000004158</v>
+        <v>0.001688099999999082</v>
       </c>
       <c r="Y43" t="n">
         <v>8</v>
@@ -4026,13 +4026,13 @@
         <v>0.02108235426370646</v>
       </c>
       <c r="F44" t="n">
-        <v>29.97728438879806</v>
+        <v>29.97728438879807</v>
       </c>
       <c r="G44" t="n">
-        <v>67.75293667130769</v>
+        <v>67.75293667130771</v>
       </c>
       <c r="H44" t="n">
-        <v>14.29393387906859</v>
+        <v>14.2939338790686</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4053,28 +4053,28 @@
         <v>38.09464111448521</v>
       </c>
       <c r="O44" t="n">
-        <v>26.74062050973359</v>
+        <v>26.74062050973358</v>
       </c>
       <c r="P44" t="n">
         <v>37.90925597491522</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.007930246565268948</v>
+        <v>0.007930246565269266</v>
       </c>
       <c r="R44" t="n">
-        <v>0.1642897408338212</v>
+        <v>0.1642897408338453</v>
       </c>
       <c r="S44" t="n">
-        <v>0.1075813027258746</v>
+        <v>0.1075813027258908</v>
       </c>
       <c r="T44" t="n">
-        <v>0.07897115618558735</v>
+        <v>0.07897115618559383</v>
       </c>
       <c r="U44" t="n">
-        <v>0.009374924893630917</v>
+        <v>0.009374924893630883</v>
       </c>
       <c r="V44" t="n">
-        <v>0.03881513537093684</v>
+        <v>0.03881513537093653</v>
       </c>
       <c r="W44" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="X44" t="n">
-        <v>0.002725999999995565</v>
+        <v>0.001993599999998708</v>
       </c>
       <c r="Y44" t="n">
         <v>10</v>
@@ -4108,13 +4108,13 @@
         <v>359.9921763731905</v>
       </c>
       <c r="F45" t="n">
-        <v>29.88049495230393</v>
+        <v>29.88049495230394</v>
       </c>
       <c r="G45" t="n">
-        <v>20.43127009512508</v>
+        <v>20.43127009512507</v>
       </c>
       <c r="H45" t="n">
-        <v>10.45119754234385</v>
+        <v>10.45119754234387</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4138,25 +4138,25 @@
         <v>8.087761771707735</v>
       </c>
       <c r="P45" t="n">
-        <v>39.40857593478843</v>
+        <v>39.40857593478846</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.007389341303478456</v>
+        <v>0.007389341303478335</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1469802092083382</v>
+        <v>0.1469802092083391</v>
       </c>
       <c r="S45" t="n">
-        <v>0.04216526516644853</v>
+        <v>0.0421652651664478</v>
       </c>
       <c r="T45" t="n">
-        <v>0.2104441184712944</v>
+        <v>0.2104441184712891</v>
       </c>
       <c r="U45" t="n">
-        <v>0.009777617325946538</v>
+        <v>0.009777617325946529</v>
       </c>
       <c r="V45" t="n">
-        <v>0.04751056669108591</v>
+        <v>0.04751056669109172</v>
       </c>
       <c r="W45" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="X45" t="n">
-        <v>0.001923699999991868</v>
+        <v>0.00148680000000212</v>
       </c>
       <c r="Y45" t="n">
         <v>7</v>
@@ -4223,19 +4223,19 @@
         <v>23.44212898761896</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.006547466855573335</v>
+        <v>0.006547466855573416</v>
       </c>
       <c r="R46" t="n">
-        <v>0.09985941452066113</v>
+        <v>0.0998594145206584</v>
       </c>
       <c r="S46" t="n">
-        <v>0.0282181209017124</v>
+        <v>0.02821812090171237</v>
       </c>
       <c r="T46" t="n">
-        <v>0.1327729264759971</v>
+        <v>0.1327729264759984</v>
       </c>
       <c r="U46" t="n">
-        <v>0.009976034631915506</v>
+        <v>0.00997603463191549</v>
       </c>
       <c r="V46" t="n">
         <v>0.0431718162262959</v>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="X46" t="n">
-        <v>0.002209400000012351</v>
+        <v>0.001840600000001302</v>
       </c>
       <c r="Y46" t="n">
         <v>8</v>
@@ -4272,13 +4272,13 @@
         <v>0.009397257263205245</v>
       </c>
       <c r="F47" t="n">
-        <v>30.04152682195849</v>
+        <v>30.0415268219585</v>
       </c>
       <c r="G47" t="n">
         <v>178.1892040539148</v>
       </c>
       <c r="H47" t="n">
-        <v>9.786595669824644</v>
+        <v>9.786595669824647</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -4299,28 +4299,28 @@
         <v>15.9542760494317</v>
       </c>
       <c r="O47" t="n">
-        <v>5.6301819024516</v>
+        <v>5.630181902451587</v>
       </c>
       <c r="P47" t="n">
         <v>15.76315747863586</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.005324944501435046</v>
+        <v>0.00532494450143516</v>
       </c>
       <c r="R47" t="n">
-        <v>0.09678621828785965</v>
+        <v>0.0967862182878616</v>
       </c>
       <c r="S47" t="n">
-        <v>0.01499770302035864</v>
+        <v>0.0149977030203588</v>
       </c>
       <c r="T47" t="n">
-        <v>0.1429925245771469</v>
+        <v>0.1429925245771502</v>
       </c>
       <c r="U47" t="n">
-        <v>0.009421769603878543</v>
+        <v>0.009421769603878503</v>
       </c>
       <c r="V47" t="n">
-        <v>0.07653873733804026</v>
+        <v>0.07653873733804137</v>
       </c>
       <c r="W47" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         </is>
       </c>
       <c r="X47" t="n">
-        <v>0.002004600000006462</v>
+        <v>0.001511799999999397</v>
       </c>
       <c r="Y47" t="n">
         <v>7</v>
@@ -4387,22 +4387,22 @@
         <v>19.70000990101196</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.007087855446798417</v>
+        <v>0.007087855446798725</v>
       </c>
       <c r="R48" t="n">
-        <v>0.1182746543303437</v>
+        <v>0.1182746543303645</v>
       </c>
       <c r="S48" t="n">
-        <v>0.05573387540482747</v>
+        <v>0.05573387540483576</v>
       </c>
       <c r="T48" t="n">
-        <v>0.03758964771801757</v>
+        <v>0.037589647718018</v>
       </c>
       <c r="U48" t="n">
-        <v>0.0103048594730982</v>
+        <v>0.01030485947309818</v>
       </c>
       <c r="V48" t="n">
-        <v>0.01157801176701622</v>
+        <v>0.01157801176701664</v>
       </c>
       <c r="W48" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="X48" t="n">
-        <v>0.002505599999992114</v>
+        <v>0.001828199999998503</v>
       </c>
       <c r="Y48" t="n">
         <v>9</v>
@@ -4436,7 +4436,7 @@
         <v>0.00321470473750888</v>
       </c>
       <c r="F49" t="n">
-        <v>30.07586024402495</v>
+        <v>30.07586024402494</v>
       </c>
       <c r="G49" t="n">
         <v>20.51190163883773</v>
@@ -4466,25 +4466,25 @@
         <v>9.469788541442449</v>
       </c>
       <c r="P49" t="n">
-        <v>44.50485064481858</v>
+        <v>44.50485064481856</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.007821255287021404</v>
+        <v>0.007821255287021699</v>
       </c>
       <c r="R49" t="n">
-        <v>0.1594179441406007</v>
+        <v>0.1594179441406034</v>
       </c>
       <c r="S49" t="n">
-        <v>0.05424102914170581</v>
+        <v>0.05424102914170918</v>
       </c>
       <c r="T49" t="n">
-        <v>0.2139091673736745</v>
+        <v>0.2139091673736871</v>
       </c>
       <c r="U49" t="n">
-        <v>0.009957982771238542</v>
+        <v>0.009957982771238555</v>
       </c>
       <c r="V49" t="n">
-        <v>0.01422082841159882</v>
+        <v>0.01422082841160113</v>
       </c>
       <c r="W49" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="X49" t="n">
-        <v>0.00190620000000763</v>
+        <v>0.001708100000001878</v>
       </c>
       <c r="Y49" t="n">
         <v>7</v>
@@ -4518,7 +4518,7 @@
         <v>359.9986327992822</v>
       </c>
       <c r="F50" t="n">
-        <v>29.79536389122754</v>
+        <v>29.79536389122753</v>
       </c>
       <c r="G50" t="n">
         <v>3.078270451791167</v>
@@ -4545,28 +4545,28 @@
         <v>43.84652687772623</v>
       </c>
       <c r="O50" t="n">
-        <v>2.696974958183068</v>
+        <v>2.696974958183055</v>
       </c>
       <c r="P50" t="n">
         <v>43.79688316328835</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.006490923772018078</v>
+        <v>0.006490923772018049</v>
       </c>
       <c r="R50" t="n">
-        <v>0.2575655612872884</v>
+        <v>0.2575655612872871</v>
       </c>
       <c r="S50" t="n">
-        <v>0.02433902504769283</v>
+        <v>0.02433902504769275</v>
       </c>
       <c r="T50" t="n">
-        <v>0.4214555620805753</v>
+        <v>0.4214555620805727</v>
       </c>
       <c r="U50" t="n">
-        <v>0.01018775179091341</v>
+        <v>0.0101877517909134</v>
       </c>
       <c r="V50" t="n">
-        <v>0.03046590661082247</v>
+        <v>0.03046590661083022</v>
       </c>
       <c r="W50" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         </is>
       </c>
       <c r="X50" t="n">
-        <v>0.003656900000009955</v>
+        <v>0.001430800000001398</v>
       </c>
       <c r="Y50" t="n">
         <v>7</v>
@@ -4600,13 +4600,13 @@
         <v>359.9966590623122</v>
       </c>
       <c r="F51" t="n">
-        <v>29.860828018956</v>
+        <v>29.86082801895601</v>
       </c>
       <c r="G51" t="n">
-        <v>53.7354645310953</v>
+        <v>53.73546453109535</v>
       </c>
       <c r="H51" t="n">
-        <v>5.969709652689946</v>
+        <v>5.969709652689944</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4627,28 +4627,28 @@
         <v>32.33427654125745</v>
       </c>
       <c r="O51" t="n">
-        <v>12.43990353280133</v>
+        <v>12.43990353280134</v>
       </c>
       <c r="P51" t="n">
         <v>32.23875291373637</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.007301131112549083</v>
+        <v>0.007301131112549086</v>
       </c>
       <c r="R51" t="n">
-        <v>0.1231197102100722</v>
+        <v>0.1231197102100713</v>
       </c>
       <c r="S51" t="n">
-        <v>0.04667965785419258</v>
+        <v>0.04667965785419276</v>
       </c>
       <c r="T51" t="n">
-        <v>0.1299679464802332</v>
+        <v>0.1299679464802339</v>
       </c>
       <c r="U51" t="n">
-        <v>0.009101124773015392</v>
+        <v>0.00910112477301539</v>
       </c>
       <c r="V51" t="n">
-        <v>0.02184470096150662</v>
+        <v>0.02184470096150408</v>
       </c>
       <c r="W51" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="X51" t="n">
-        <v>0.002192399999998429</v>
+        <v>0.001656200000002883</v>
       </c>
       <c r="Y51" t="n">
         <v>8</v>
@@ -4682,13 +4682,13 @@
         <v>359.9977208751245</v>
       </c>
       <c r="F52" t="n">
-        <v>29.98708035375166</v>
+        <v>29.98708035375165</v>
       </c>
       <c r="G52" t="n">
-        <v>88.56608771128222</v>
+        <v>88.56608771128231</v>
       </c>
       <c r="H52" t="n">
-        <v>5.752657114572357</v>
+        <v>5.752657114572352</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4712,25 +4712,25 @@
         <v>16.33068732328679</v>
       </c>
       <c r="P52" t="n">
-        <v>28.70142630657264</v>
+        <v>28.70142630657262</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.007298385035097617</v>
+        <v>0.007298385035097461</v>
       </c>
       <c r="R52" t="n">
-        <v>0.1195529733132676</v>
+        <v>0.1195529733132675</v>
       </c>
       <c r="S52" t="n">
-        <v>0.05133647556589028</v>
+        <v>0.05133647556588929</v>
       </c>
       <c r="T52" t="n">
-        <v>0.0922111504733506</v>
+        <v>0.09221115047334794</v>
       </c>
       <c r="U52" t="n">
-        <v>0.009803880382197171</v>
+        <v>0.009803880382197164</v>
       </c>
       <c r="V52" t="n">
-        <v>0.02287804409168329</v>
+        <v>0.0228780440916778</v>
       </c>
       <c r="W52" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="X52" t="n">
-        <v>0.001934899999994855</v>
+        <v>0.001458100000000684</v>
       </c>
       <c r="Y52" t="n">
         <v>7</v>
@@ -4764,7 +4764,7 @@
         <v>359.9994762850912</v>
       </c>
       <c r="F53" t="n">
-        <v>29.89210925699912</v>
+        <v>29.89210925699911</v>
       </c>
       <c r="G53" t="n">
         <v>119.1418903341807</v>
@@ -4794,25 +4794,25 @@
         <v>10.74768163731149</v>
       </c>
       <c r="P53" t="n">
-        <v>25.70632253636284</v>
+        <v>25.70632253636283</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.006788978006001996</v>
+        <v>0.006788978006002243</v>
       </c>
       <c r="R53" t="n">
-        <v>0.1036843801123246</v>
+        <v>0.1036843801123274</v>
       </c>
       <c r="S53" t="n">
-        <v>0.03377609522486574</v>
+        <v>0.03377609522486861</v>
       </c>
       <c r="T53" t="n">
-        <v>0.1233964521367715</v>
+        <v>0.1233964521367758</v>
       </c>
       <c r="U53" t="n">
-        <v>0.009732058692873876</v>
+        <v>0.009732058692873883</v>
       </c>
       <c r="V53" t="n">
-        <v>0.1292571841090033</v>
+        <v>0.1292571841090031</v>
       </c>
       <c r="W53" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="X53" t="n">
-        <v>0.002213499999996316</v>
+        <v>0.001794499999999033</v>
       </c>
       <c r="Y53" t="n">
         <v>8</v>
@@ -4852,7 +4852,7 @@
         <v>145.4574456459689</v>
       </c>
       <c r="H54" t="n">
-        <v>3.182115076509309</v>
+        <v>3.182115076509307</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4879,22 +4879,22 @@
         <v>24.59582964968897</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.006439385321940335</v>
+        <v>0.006439385321940097</v>
       </c>
       <c r="R54" t="n">
-        <v>0.1069935982747531</v>
+        <v>0.1069935982747533</v>
       </c>
       <c r="S54" t="n">
-        <v>0.02628186006860279</v>
+        <v>0.02628186006860135</v>
       </c>
       <c r="T54" t="n">
-        <v>0.1539926296422054</v>
+        <v>0.1539926296421971</v>
       </c>
       <c r="U54" t="n">
-        <v>0.009232373545058006</v>
+        <v>0.009232373545058011</v>
       </c>
       <c r="V54" t="n">
-        <v>0.1966808218825918</v>
+        <v>0.1966808218825934</v>
       </c>
       <c r="W54" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="X54" t="n">
-        <v>0.002199399999994966</v>
+        <v>0.001731700000000558</v>
       </c>
       <c r="Y54" t="n">
         <v>8</v>
@@ -4961,19 +4961,19 @@
         <v>18.29720479206133</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.006856502176167313</v>
+        <v>0.006856502176167739</v>
       </c>
       <c r="R55" t="n">
-        <v>0.1004308793160826</v>
+        <v>0.100430879316095</v>
       </c>
       <c r="S55" t="n">
-        <v>0.04198878116657756</v>
+        <v>0.04198878116658324</v>
       </c>
       <c r="T55" t="n">
-        <v>0.04885597669445797</v>
+        <v>0.0488559766944585</v>
       </c>
       <c r="U55" t="n">
-        <v>0.01121817740021305</v>
+        <v>0.01121817740021308</v>
       </c>
       <c r="V55" t="n">
         <v>0.01486323937793751</v>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="X55" t="n">
-        <v>0.002549099999995974</v>
+        <v>0.00187569999999937</v>
       </c>
       <c r="Y55" t="n">
         <v>9</v>
@@ -5013,10 +5013,10 @@
         <v>29.83457684959801</v>
       </c>
       <c r="G56" t="n">
-        <v>76.33412271721549</v>
+        <v>76.33412271721554</v>
       </c>
       <c r="H56" t="n">
-        <v>7.238868771272551</v>
+        <v>7.238868771272547</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -5040,25 +5040,25 @@
         <v>18.19609989688755</v>
       </c>
       <c r="P56" t="n">
-        <v>30.81128474511288</v>
+        <v>30.81128474511286</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.007425645176609896</v>
+        <v>0.007425645176609786</v>
       </c>
       <c r="R56" t="n">
-        <v>0.1278940746204562</v>
+        <v>0.1278940746204477</v>
       </c>
       <c r="S56" t="n">
-        <v>0.0600302857760949</v>
+        <v>0.06003028577609121</v>
       </c>
       <c r="T56" t="n">
-        <v>0.08882472628873943</v>
+        <v>0.08882472628873783</v>
       </c>
       <c r="U56" t="n">
-        <v>0.009837975939638274</v>
+        <v>0.009837975939638298</v>
       </c>
       <c r="V56" t="n">
-        <v>0.07701648630817803</v>
+        <v>0.07701648630818073</v>
       </c>
       <c r="W56" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="X56" t="n">
-        <v>0.002422300000006317</v>
+        <v>0.001968300000001477</v>
       </c>
       <c r="Y56" t="n">
         <v>9</v>
@@ -5092,13 +5092,13 @@
         <v>359.9902367589088</v>
       </c>
       <c r="F57" t="n">
-        <v>30.05453298417338</v>
+        <v>30.05453298417337</v>
       </c>
       <c r="G57" t="n">
-        <v>16.74837232194421</v>
+        <v>16.7483723219442</v>
       </c>
       <c r="H57" t="n">
-        <v>14.8107149525705</v>
+        <v>14.81071495257051</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -5125,22 +5125,22 @@
         <v>44.89942870373932</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.007717077300501017</v>
+        <v>0.00771707730050123</v>
       </c>
       <c r="R57" t="n">
-        <v>0.1638979337395747</v>
+        <v>0.1638979337395803</v>
       </c>
       <c r="S57" t="n">
-        <v>0.04861946134824308</v>
+        <v>0.04861946134824637</v>
       </c>
       <c r="T57" t="n">
-        <v>0.2379962694826198</v>
+        <v>0.2379962694826303</v>
       </c>
       <c r="U57" t="n">
-        <v>0.009769909887138734</v>
+        <v>0.009769909887138724</v>
       </c>
       <c r="V57" t="n">
-        <v>0.0383082411653148</v>
+        <v>0.038308241165316</v>
       </c>
       <c r="W57" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="X57" t="n">
-        <v>0.002421499999996968</v>
+        <v>0.001510700000000753</v>
       </c>
       <c r="Y57" t="n">
         <v>7</v>
@@ -5180,7 +5180,7 @@
         <v>176.9792953727904</v>
       </c>
       <c r="H58" t="n">
-        <v>6.92842296926188</v>
+        <v>6.928422969261872</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -5204,25 +5204,25 @@
         <v>4.798703495718344</v>
       </c>
       <c r="P58" t="n">
-        <v>19.1732727792502</v>
+        <v>19.17327277925021</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.005449885030971048</v>
+        <v>0.005449885030970862</v>
       </c>
       <c r="R58" t="n">
-        <v>0.1157392245791041</v>
+        <v>0.1157392245791007</v>
       </c>
       <c r="S58" t="n">
-        <v>0.01588888992863417</v>
+        <v>0.01588888992863364</v>
       </c>
       <c r="T58" t="n">
-        <v>0.1737569015609912</v>
+        <v>0.173756901560983</v>
       </c>
       <c r="U58" t="n">
-        <v>0.009595589955626878</v>
+        <v>0.009595589955626848</v>
       </c>
       <c r="V58" t="n">
-        <v>0.04545836013533162</v>
+        <v>0.04545836013533511</v>
       </c>
       <c r="W58" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="X58" t="n">
-        <v>0.001928199999994717</v>
+        <v>0.001429999999999154</v>
       </c>
       <c r="Y58" t="n">
         <v>7</v>
@@ -5256,13 +5256,13 @@
         <v>359.9914001878129</v>
       </c>
       <c r="F59" t="n">
-        <v>29.77537531028574</v>
+        <v>29.77537531028575</v>
       </c>
       <c r="G59" t="n">
         <v>14.85835183925096</v>
       </c>
       <c r="H59" t="n">
-        <v>6.187350038826922</v>
+        <v>6.187350038826925</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -5286,25 +5286,25 @@
         <v>5.109214326348952</v>
       </c>
       <c r="P59" t="n">
-        <v>34.47253462895528</v>
+        <v>34.47253462895529</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.006626477025891072</v>
+        <v>0.006626477025891133</v>
       </c>
       <c r="R59" t="n">
-        <v>0.1570059042093698</v>
+        <v>0.1570059042093705</v>
       </c>
       <c r="S59" t="n">
-        <v>0.02736013483792293</v>
+        <v>0.02736013483792291</v>
       </c>
       <c r="T59" t="n">
-        <v>0.2511338182950235</v>
+        <v>0.2511338182950257</v>
       </c>
       <c r="U59" t="n">
-        <v>0.01090777812743162</v>
+        <v>0.01090777812743166</v>
       </c>
       <c r="V59" t="n">
-        <v>0.2193576216428595</v>
+        <v>0.2193576216428615</v>
       </c>
       <c r="W59" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="X59" t="n">
-        <v>0.001928999999989855</v>
+        <v>0.001794800000002539</v>
       </c>
       <c r="Y59" t="n">
         <v>7</v>
@@ -5341,10 +5341,10 @@
         <v>29.74575490290612</v>
       </c>
       <c r="G60" t="n">
-        <v>65.0757710085005</v>
+        <v>65.07577100850048</v>
       </c>
       <c r="H60" t="n">
-        <v>8.397727961768867</v>
+        <v>8.397727961768869</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -5365,28 +5365,28 @@
         <v>33.19847585386613</v>
       </c>
       <c r="O60" t="n">
-        <v>18.18463843123228</v>
+        <v>18.18463843123227</v>
       </c>
       <c r="P60" t="n">
-        <v>33.02558830347318</v>
+        <v>33.02558830347319</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.007537885531916168</v>
+        <v>0.007537885531916445</v>
       </c>
       <c r="R60" t="n">
-        <v>0.1333865319121743</v>
+        <v>0.1333865319121924</v>
       </c>
       <c r="S60" t="n">
-        <v>0.06456881424163989</v>
+        <v>0.06456881424164904</v>
       </c>
       <c r="T60" t="n">
-        <v>0.09579128780120742</v>
+        <v>0.09579128780121293</v>
       </c>
       <c r="U60" t="n">
-        <v>0.009421328232153836</v>
+        <v>0.009421328232153832</v>
       </c>
       <c r="V60" t="n">
-        <v>0.03610073585460395</v>
+        <v>0.03610073585460306</v>
       </c>
       <c r="W60" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         </is>
       </c>
       <c r="X60" t="n">
-        <v>0.002489900000000489</v>
+        <v>0.00184279999999859</v>
       </c>
       <c r="Y60" t="n">
         <v>9</v>
@@ -5423,10 +5423,10 @@
         <v>29.93541313816844</v>
       </c>
       <c r="G61" t="n">
-        <v>166.8708629512907</v>
+        <v>166.8708629512908</v>
       </c>
       <c r="H61" t="n">
-        <v>4.972999207779273</v>
+        <v>4.972999207779274</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -5453,22 +5453,22 @@
         <v>21.65582136484282</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.006027390665162963</v>
+        <v>0.006027390665163049</v>
       </c>
       <c r="R61" t="n">
-        <v>0.1042901919247783</v>
+        <v>0.1042901919247784</v>
       </c>
       <c r="S61" t="n">
-        <v>0.02139290162017705</v>
+        <v>0.02139290162017724</v>
       </c>
       <c r="T61" t="n">
-        <v>0.1564144746455108</v>
+        <v>0.156414474645513</v>
       </c>
       <c r="U61" t="n">
-        <v>0.01004569040884558</v>
+        <v>0.0100456904088456</v>
       </c>
       <c r="V61" t="n">
-        <v>0.07217909826306357</v>
+        <v>0.07217909826306543</v>
       </c>
       <c r="W61" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="X61" t="n">
-        <v>0.002164600000000405</v>
+        <v>0.001606500000001176</v>
       </c>
       <c r="Y61" t="n">
         <v>8</v>
@@ -5502,10 +5502,10 @@
         <v>359.9883677793246</v>
       </c>
       <c r="F62" t="n">
-        <v>30.19312243146756</v>
+        <v>30.19312243146758</v>
       </c>
       <c r="G62" t="n">
-        <v>53.87153945380641</v>
+        <v>53.87153945380645</v>
       </c>
       <c r="H62" t="n">
         <v>5.344693334991202</v>
@@ -5532,25 +5532,25 @@
         <v>11.43804171628699</v>
       </c>
       <c r="P62" t="n">
-        <v>31.9936238299706</v>
+        <v>31.99362382997061</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.007297539076333877</v>
+        <v>0.007297539076334067</v>
       </c>
       <c r="R62" t="n">
-        <v>0.1234389458529288</v>
+        <v>0.1234389458529271</v>
       </c>
       <c r="S62" t="n">
-        <v>0.0438609464228959</v>
+        <v>0.04386094642289632</v>
       </c>
       <c r="T62" t="n">
-        <v>0.1386400702266104</v>
+        <v>0.1386400702266142</v>
       </c>
       <c r="U62" t="n">
         <v>0.01070719166890037</v>
       </c>
       <c r="V62" t="n">
-        <v>0.07780794561398388</v>
+        <v>0.07780794561398391</v>
       </c>
       <c r="W62" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         </is>
       </c>
       <c r="X62" t="n">
-        <v>0.002272300000001337</v>
+        <v>0.002266099999999938</v>
       </c>
       <c r="Y62" t="n">
         <v>8</v>
@@ -5590,7 +5590,7 @@
         <v>148.2126693159599</v>
       </c>
       <c r="H63" t="n">
-        <v>5.186438356443801</v>
+        <v>5.186438356443804</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5617,22 +5617,22 @@
         <v>22.63211937439269</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.006663286489621795</v>
+        <v>0.006663286489621754</v>
       </c>
       <c r="R63" t="n">
-        <v>0.09571237001782988</v>
+        <v>0.0957123700178325</v>
       </c>
       <c r="S63" t="n">
-        <v>0.03154285011760773</v>
+        <v>0.031542850117608</v>
       </c>
       <c r="T63" t="n">
-        <v>0.1090201959512488</v>
+        <v>0.1090201959512481</v>
       </c>
       <c r="U63" t="n">
-        <v>0.01031496896320502</v>
+        <v>0.01031496896320501</v>
       </c>
       <c r="V63" t="n">
-        <v>0.02197546890244659</v>
+        <v>0.02197546890244788</v>
       </c>
       <c r="W63" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         </is>
       </c>
       <c r="X63" t="n">
-        <v>0.00216079999999863</v>
+        <v>0.001732099999998127</v>
       </c>
       <c r="Y63" t="n">
         <v>8</v>
@@ -5666,13 +5666,13 @@
         <v>0.007550975005074335</v>
       </c>
       <c r="F64" t="n">
-        <v>30.26598614555716</v>
+        <v>30.26598614555715</v>
       </c>
       <c r="G64" t="n">
         <v>6.240247309262917</v>
       </c>
       <c r="H64" t="n">
-        <v>8.616818990542665</v>
+        <v>8.616818990542662</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5699,22 +5699,22 @@
         <v>37.9981145080371</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.006529629195845387</v>
+        <v>0.006529629195845329</v>
       </c>
       <c r="R64" t="n">
-        <v>0.2077148878615361</v>
+        <v>0.2077148878615349</v>
       </c>
       <c r="S64" t="n">
-        <v>0.02438155371302394</v>
+        <v>0.02438155371302403</v>
       </c>
       <c r="T64" t="n">
-        <v>0.3369686496096065</v>
+        <v>0.3369686496096038</v>
       </c>
       <c r="U64" t="n">
-        <v>0.008940151898933733</v>
+        <v>0.008940151898933745</v>
       </c>
       <c r="V64" t="n">
-        <v>0.07836240119675425</v>
+        <v>0.07836240119675525</v>
       </c>
       <c r="W64" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="X64" t="n">
-        <v>0.002077400000004559</v>
+        <v>0.001512800000000425</v>
       </c>
       <c r="Y64" t="n">
         <v>7</v>
@@ -5781,22 +5781,22 @@
         <v>27.84131409042702</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.007421063331040977</v>
+        <v>0.00742106333104143</v>
       </c>
       <c r="R65" t="n">
-        <v>0.1283119999639751</v>
+        <v>0.1283119999640067</v>
       </c>
       <c r="S65" t="n">
-        <v>0.06326518557650782</v>
+        <v>0.06326518557652266</v>
       </c>
       <c r="T65" t="n">
-        <v>0.06514979169161571</v>
+        <v>0.06514979169161728</v>
       </c>
       <c r="U65" t="n">
-        <v>0.009596528709448651</v>
+        <v>0.009596528709448698</v>
       </c>
       <c r="V65" t="n">
-        <v>0.01194436166730244</v>
+        <v>0.01194436166730202</v>
       </c>
       <c r="W65" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="X65" t="n">
-        <v>0.002549999999999386</v>
+        <v>0.001838100000000509</v>
       </c>
       <c r="Y65" t="n">
         <v>9</v>
@@ -5830,13 +5830,13 @@
         <v>0.02741529355072491</v>
       </c>
       <c r="F66" t="n">
-        <v>30.01412393297743</v>
+        <v>30.01412393297745</v>
       </c>
       <c r="G66" t="n">
-        <v>68.59037936516127</v>
+        <v>68.5903793651613</v>
       </c>
       <c r="H66" t="n">
-        <v>9.741908185249059</v>
+        <v>9.741908185249068</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5860,25 +5860,25 @@
         <v>20.86317327393992</v>
       </c>
       <c r="P66" t="n">
-        <v>33.88694692578475</v>
+        <v>33.88694692578477</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.007671967437091856</v>
+        <v>0.007671967437091819</v>
       </c>
       <c r="R66" t="n">
-        <v>0.1425265253188202</v>
+        <v>0.1425265253188033</v>
       </c>
       <c r="S66" t="n">
-        <v>0.07514294211528301</v>
+        <v>0.07514294211527539</v>
       </c>
       <c r="T66" t="n">
-        <v>0.0865891880191476</v>
+        <v>0.08658918801914649</v>
       </c>
       <c r="U66" t="n">
-        <v>0.01079692239917462</v>
+        <v>0.01079692239917466</v>
       </c>
       <c r="V66" t="n">
-        <v>0.02963573328768023</v>
+        <v>0.02963573328767763</v>
       </c>
       <c r="W66" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="X66" t="n">
-        <v>0.004378899999991859</v>
+        <v>0.001949899999999616</v>
       </c>
       <c r="Y66" t="n">
         <v>9</v>
@@ -5912,13 +5912,13 @@
         <v>0.01436542799843426</v>
       </c>
       <c r="F67" t="n">
-        <v>29.96938009388555</v>
+        <v>29.96938009388554</v>
       </c>
       <c r="G67" t="n">
-        <v>39.16135921230925</v>
+        <v>39.16135921230922</v>
       </c>
       <c r="H67" t="n">
-        <v>3.369835493580777</v>
+        <v>3.369835493580778</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5942,25 +5942,25 @@
         <v>6.978048447230786</v>
       </c>
       <c r="P67" t="n">
-        <v>30.71598249037649</v>
+        <v>30.71598249037648</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.006750689260259035</v>
+        <v>0.0067506892602589</v>
       </c>
       <c r="R67" t="n">
-        <v>0.1281145924999876</v>
+        <v>0.1281145924999889</v>
       </c>
       <c r="S67" t="n">
-        <v>0.02985822782433027</v>
+        <v>0.0298582278243299</v>
       </c>
       <c r="T67" t="n">
-        <v>0.1920270115493323</v>
+        <v>0.1920270115493262</v>
       </c>
       <c r="U67" t="n">
-        <v>0.009921604944815142</v>
+        <v>0.009921604944815154</v>
       </c>
       <c r="V67" t="n">
-        <v>0.01393443869743932</v>
+        <v>0.01393443869743995</v>
       </c>
       <c r="W67" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="X67" t="n">
-        <v>0.002297599999991462</v>
+        <v>0.001647000000001952</v>
       </c>
       <c r="Y67" t="n">
         <v>8</v>
@@ -6000,7 +6000,7 @@
         <v>28.0746944149238</v>
       </c>
       <c r="H68" t="n">
-        <v>4.511393423959326</v>
+        <v>4.511393423959323</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -6024,25 +6024,25 @@
         <v>6.609179073061877</v>
       </c>
       <c r="P68" t="n">
-        <v>32.26460385269605</v>
+        <v>32.26460385269604</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.006771311444726468</v>
+        <v>0.00677131144472634</v>
       </c>
       <c r="R68" t="n">
-        <v>0.1346360262169747</v>
+        <v>0.1346360262169741</v>
       </c>
       <c r="S68" t="n">
-        <v>0.03016217625978762</v>
+        <v>0.03016217625978691</v>
       </c>
       <c r="T68" t="n">
-        <v>0.2052331208754316</v>
+        <v>0.2052331208754255</v>
       </c>
       <c r="U68" t="n">
-        <v>0.00981256247749393</v>
+        <v>0.009812562477493939</v>
       </c>
       <c r="V68" t="n">
-        <v>0.07206413941285333</v>
+        <v>0.07206413941285562</v>
       </c>
       <c r="W68" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         </is>
       </c>
       <c r="X68" t="n">
-        <v>0.002257200000002513</v>
+        <v>0.001615100000002201</v>
       </c>
       <c r="Y68" t="n">
         <v>8</v>
@@ -6076,13 +6076,13 @@
         <v>0.02581456907734783</v>
       </c>
       <c r="F69" t="n">
-        <v>29.80272274695411</v>
+        <v>29.80272274695409</v>
       </c>
       <c r="G69" t="n">
         <v>98.39511474612922</v>
       </c>
       <c r="H69" t="n">
-        <v>13.16668330395874</v>
+        <v>13.16668330395873</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -6106,25 +6106,25 @@
         <v>34.05238349628473</v>
       </c>
       <c r="P69" t="n">
-        <v>30.0287207953123</v>
+        <v>30.02872079531229</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.007582750666950563</v>
+        <v>0.007582750666951119</v>
       </c>
       <c r="R69" t="n">
-        <v>0.1556965004670286</v>
+        <v>0.1556965004670516</v>
       </c>
       <c r="S69" t="n">
-        <v>0.1023049559359706</v>
+        <v>0.1023049559359874</v>
       </c>
       <c r="T69" t="n">
-        <v>0.03737741018856813</v>
+        <v>0.03737741018856884</v>
       </c>
       <c r="U69" t="n">
-        <v>0.009745888255700625</v>
+        <v>0.009745888255700628</v>
       </c>
       <c r="V69" t="n">
-        <v>0.05009301335050621</v>
+        <v>0.05009301335050918</v>
       </c>
       <c r="W69" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="X69" t="n">
-        <v>0.003034600000006549</v>
+        <v>0.002340199999999015</v>
       </c>
       <c r="Y69" t="n">
         <v>11</v>
@@ -6161,10 +6161,10 @@
         <v>29.9434766176964</v>
       </c>
       <c r="G70" t="n">
-        <v>47.16169924026557</v>
+        <v>47.16169924026542</v>
       </c>
       <c r="H70" t="n">
-        <v>3.476425185107522</v>
+        <v>3.476425185107531</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -6188,25 +6188,25 @@
         <v>7.973655257369009</v>
       </c>
       <c r="P70" t="n">
-        <v>30.4580614300311</v>
+        <v>30.45806143003112</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.00684599763713233</v>
+        <v>0.006845997637132295</v>
       </c>
       <c r="R70" t="n">
-        <v>0.1220822141944464</v>
+        <v>0.1220822141944473</v>
       </c>
       <c r="S70" t="n">
-        <v>0.03229209599763383</v>
+        <v>0.03229209599763373</v>
       </c>
       <c r="T70" t="n">
-        <v>0.1739646187893464</v>
+        <v>0.1739646187893457</v>
       </c>
       <c r="U70" t="n">
         <v>0.01006059072758443</v>
       </c>
       <c r="V70" t="n">
-        <v>0.05076870771277693</v>
+        <v>0.05076870771276586</v>
       </c>
       <c r="W70" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         </is>
       </c>
       <c r="X70" t="n">
-        <v>0.002247299999993402</v>
+        <v>0.001621600000000001</v>
       </c>
       <c r="Y70" t="n">
         <v>8</v>
@@ -6243,7 +6243,7 @@
         <v>29.66843404276623</v>
       </c>
       <c r="G71" t="n">
-        <v>53.28424788348866</v>
+        <v>53.28424788348865</v>
       </c>
       <c r="H71" t="n">
         <v>12.51525214156544</v>
@@ -6261,7 +6261,7 @@
         <v>7</v>
       </c>
       <c r="M71" t="n">
-        <v>20.1658829375731</v>
+        <v>20.16588293757309</v>
       </c>
       <c r="N71" t="n">
         <v>38.87559435981993</v>
@@ -6270,25 +6270,25 @@
         <v>20.14512976379719</v>
       </c>
       <c r="P71" t="n">
-        <v>38.37857121230934</v>
+        <v>38.37857121230935</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.007809480113183335</v>
+        <v>0.00780948011318306</v>
       </c>
       <c r="R71" t="n">
-        <v>0.1508933718481633</v>
+        <v>0.1508933718481582</v>
       </c>
       <c r="S71" t="n">
-        <v>0.08368186612185102</v>
+        <v>0.08368186612184655</v>
       </c>
       <c r="T71" t="n">
-        <v>0.1061899489749705</v>
+        <v>0.106189948974965</v>
       </c>
       <c r="U71" t="n">
-        <v>0.01045617789638229</v>
+        <v>0.01045617789638223</v>
       </c>
       <c r="V71" t="n">
-        <v>0.06558762932240628</v>
+        <v>0.06558762932240597</v>
       </c>
       <c r="W71" t="inlineStr">
         <is>
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="X71" t="n">
-        <v>0.002497899999994502</v>
+        <v>0.001827999999999719</v>
       </c>
       <c r="Y71" t="n">
         <v>9</v>
@@ -6322,7 +6322,7 @@
         <v>0.01181874858332636</v>
       </c>
       <c r="F72" t="n">
-        <v>29.91011701253396</v>
+        <v>29.91011701253397</v>
       </c>
       <c r="G72" t="n">
         <v>167.0583667513545</v>
@@ -6355,22 +6355,22 @@
         <v>12.52625372910959</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.006521665850335496</v>
+        <v>0.006521665850335594</v>
       </c>
       <c r="R72" t="n">
-        <v>0.08773153838250163</v>
+        <v>0.08773153838251273</v>
       </c>
       <c r="S72" t="n">
-        <v>0.03379750483708368</v>
+        <v>0.03379750483708631</v>
       </c>
       <c r="T72" t="n">
-        <v>0.0383134480134491</v>
+        <v>0.03831344801345</v>
       </c>
       <c r="U72" t="n">
-        <v>0.01009431809363564</v>
+        <v>0.01009431809363562</v>
       </c>
       <c r="V72" t="n">
-        <v>0.02372805544841001</v>
+        <v>0.02372805544840945</v>
       </c>
       <c r="W72" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         </is>
       </c>
       <c r="X72" t="n">
-        <v>0.002495899999999551</v>
+        <v>0.001946399999997794</v>
       </c>
       <c r="Y72" t="n">
         <v>9</v>
@@ -6407,10 +6407,10 @@
         <v>30.07146840399325</v>
       </c>
       <c r="G73" t="n">
-        <v>34.01596711079755</v>
+        <v>34.01596711079754</v>
       </c>
       <c r="H73" t="n">
-        <v>7.473523213118185</v>
+        <v>7.473523213118188</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -6437,22 +6437,22 @@
         <v>35.43376765967076</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.00737608341902854</v>
+        <v>0.00737608341902861</v>
       </c>
       <c r="R73" t="n">
-        <v>0.132741257131598</v>
+        <v>0.1327412571315967</v>
       </c>
       <c r="S73" t="n">
-        <v>0.04421375409972877</v>
+        <v>0.04421375409972902</v>
       </c>
       <c r="T73" t="n">
-        <v>0.1662666465287674</v>
+        <v>0.16626664652877</v>
       </c>
       <c r="U73" t="n">
-        <v>0.009788912942895283</v>
+        <v>0.009788912942895271</v>
       </c>
       <c r="V73" t="n">
-        <v>0.0766065420120457</v>
+        <v>0.07660654201204449</v>
       </c>
       <c r="W73" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         </is>
       </c>
       <c r="X73" t="n">
-        <v>0.002293800000003898</v>
+        <v>0.001599399999999918</v>
       </c>
       <c r="Y73" t="n">
         <v>8</v>
@@ -6489,7 +6489,7 @@
         <v>29.98283747995627</v>
       </c>
       <c r="G74" t="n">
-        <v>19.06206946271213</v>
+        <v>19.06206946271212</v>
       </c>
       <c r="H74" t="n">
         <v>11.3771881479815</v>
@@ -6516,25 +6516,25 @@
         <v>7.951612815440853</v>
       </c>
       <c r="P74" t="n">
-        <v>40.6614125429228</v>
+        <v>40.66141254292281</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.007465804190147509</v>
+        <v>0.007465804190147568</v>
       </c>
       <c r="R74" t="n">
-        <v>0.1516195638996872</v>
+        <v>0.1516195638996877</v>
       </c>
       <c r="S74" t="n">
-        <v>0.04317537568960382</v>
+        <v>0.04317537568960454</v>
       </c>
       <c r="T74" t="n">
-        <v>0.2189658517729038</v>
+        <v>0.2189658517729068</v>
       </c>
       <c r="U74" t="n">
-        <v>0.01008914342787064</v>
+        <v>0.01008914342787065</v>
       </c>
       <c r="V74" t="n">
-        <v>0.04867740399795466</v>
+        <v>0.04867740399795674</v>
       </c>
       <c r="W74" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         </is>
       </c>
       <c r="X74" t="n">
-        <v>0.001996899999994639</v>
+        <v>0.001391900000001556</v>
       </c>
       <c r="Y74" t="n">
         <v>7</v>
@@ -6571,10 +6571,10 @@
         <v>30.17426891358934</v>
       </c>
       <c r="G75" t="n">
-        <v>115.4351626084275</v>
+        <v>115.4351626084276</v>
       </c>
       <c r="H75" t="n">
-        <v>9.54155569535714</v>
+        <v>9.541555695357138</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -6598,25 +6598,25 @@
         <v>26.94086669498339</v>
       </c>
       <c r="P75" t="n">
-        <v>25.39647158757167</v>
+        <v>25.39647158757166</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.007415137947071299</v>
+        <v>0.007415137947071537</v>
       </c>
       <c r="R75" t="n">
-        <v>0.1326398064375252</v>
+        <v>0.1326398064375167</v>
       </c>
       <c r="S75" t="n">
-        <v>0.06930386251819512</v>
+        <v>0.06930386251819297</v>
       </c>
       <c r="T75" t="n">
-        <v>0.04489163469821308</v>
+        <v>0.04489163469821503</v>
       </c>
       <c r="U75" t="n">
-        <v>0.009106371547099108</v>
+        <v>0.009106371547099099</v>
       </c>
       <c r="V75" t="n">
-        <v>0.04606094284462466</v>
+        <v>0.04606094284462206</v>
       </c>
       <c r="W75" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         </is>
       </c>
       <c r="X75" t="n">
-        <v>0.004575700000003735</v>
+        <v>0.003010400000000857</v>
       </c>
       <c r="Y75" t="n">
         <v>10</v>
@@ -6650,13 +6650,13 @@
         <v>359.9909989646918</v>
       </c>
       <c r="F76" t="n">
-        <v>29.95787760074418</v>
+        <v>29.95787760074417</v>
       </c>
       <c r="G76" t="n">
-        <v>36.42729776408277</v>
+        <v>36.42729776408276</v>
       </c>
       <c r="H76" t="n">
-        <v>12.3788006362552</v>
+        <v>12.37880063625519</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6680,25 +6680,25 @@
         <v>14.25972850434867</v>
       </c>
       <c r="P76" t="n">
-        <v>40.54281815160298</v>
+        <v>40.54281815160296</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.0078440923099257</v>
+        <v>0.00784409230992582</v>
       </c>
       <c r="R76" t="n">
-        <v>0.149215014575223</v>
+        <v>0.1492150145752431</v>
       </c>
       <c r="S76" t="n">
-        <v>0.0669766077037032</v>
+        <v>0.06697660770371287</v>
       </c>
       <c r="T76" t="n">
-        <v>0.1479415863054559</v>
+        <v>0.1479415863054642</v>
       </c>
       <c r="U76" t="n">
-        <v>0.009105131584356304</v>
+        <v>0.009105131584356274</v>
       </c>
       <c r="V76" t="n">
-        <v>0.01249082116824104</v>
+        <v>0.01249082116824263</v>
       </c>
       <c r="W76" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="X76" t="n">
-        <v>0.002672300000000405</v>
+        <v>0.001868200000000542</v>
       </c>
       <c r="Y76" t="n">
         <v>9</v>
@@ -6765,22 +6765,22 @@
         <v>27.25505172207961</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.007044621201282636</v>
+        <v>0.007044621201282767</v>
       </c>
       <c r="R77" t="n">
-        <v>0.110052628468125</v>
+        <v>0.1100526284681213</v>
       </c>
       <c r="S77" t="n">
-        <v>0.0389298096711915</v>
+        <v>0.03892980967119068</v>
       </c>
       <c r="T77" t="n">
-        <v>0.1173170614799116</v>
+        <v>0.1173170614799139</v>
       </c>
       <c r="U77" t="n">
-        <v>0.009584149772930674</v>
+        <v>0.009584149772930621</v>
       </c>
       <c r="V77" t="n">
-        <v>0.08252561773271419</v>
+        <v>0.08252561773271397</v>
       </c>
       <c r="W77" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         </is>
       </c>
       <c r="X77" t="n">
-        <v>0.004000500000003626</v>
+        <v>0.001663200000002973</v>
       </c>
       <c r="Y77" t="n">
         <v>8</v>
@@ -6817,7 +6817,7 @@
         <v>29.95511933051547</v>
       </c>
       <c r="G78" t="n">
-        <v>55.95092962263499</v>
+        <v>55.95092962263497</v>
       </c>
       <c r="H78" t="n">
         <v>12.82099141191314</v>
@@ -6841,28 +6841,28 @@
         <v>38.60175053192231</v>
       </c>
       <c r="O78" t="n">
-        <v>21.15713980754922</v>
+        <v>21.15713980754921</v>
       </c>
       <c r="P78" t="n">
-        <v>38.55157129732518</v>
+        <v>38.5515712973252</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.007916862098644369</v>
+        <v>0.007916862098643992</v>
       </c>
       <c r="R78" t="n">
-        <v>0.1553334532326459</v>
+        <v>0.1553334532326258</v>
       </c>
       <c r="S78" t="n">
-        <v>0.08845171530059137</v>
+        <v>0.08845171530057888</v>
       </c>
       <c r="T78" t="n">
-        <v>0.1022912986059498</v>
+        <v>0.1022912986059412</v>
       </c>
       <c r="U78" t="n">
-        <v>0.009533990603832782</v>
+        <v>0.009533990603832794</v>
       </c>
       <c r="V78" t="n">
-        <v>0.006666432674944231</v>
+        <v>0.006666432674940868</v>
       </c>
       <c r="W78" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         </is>
       </c>
       <c r="X78" t="n">
-        <v>0.002873100000002182</v>
+        <v>0.002393699999998944</v>
       </c>
       <c r="Y78" t="n">
         <v>10</v>
@@ -6929,22 +6929,22 @@
         <v>15.60174527229749</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.006460549726683521</v>
+        <v>0.00646054972668357</v>
       </c>
       <c r="R79" t="n">
-        <v>0.08175111720897718</v>
+        <v>0.08175111720897553</v>
       </c>
       <c r="S79" t="n">
-        <v>0.03069996978274147</v>
+        <v>0.0306999697827415</v>
       </c>
       <c r="T79" t="n">
-        <v>0.06081707963783493</v>
+        <v>0.06081707963783621</v>
       </c>
       <c r="U79" t="n">
-        <v>0.009986461666727918</v>
+        <v>0.009986461666727908</v>
       </c>
       <c r="V79" t="n">
-        <v>0.01133984550844699</v>
+        <v>0.01133984550844721</v>
       </c>
       <c r="W79" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="X79" t="n">
-        <v>0.003507799999994177</v>
+        <v>0.001879699999999929</v>
       </c>
       <c r="Y79" t="n">
         <v>9</v>
@@ -6978,13 +6978,13 @@
         <v>359.9908311376873</v>
       </c>
       <c r="F80" t="n">
-        <v>30.21137450757772</v>
+        <v>30.21137450757771</v>
       </c>
       <c r="G80" t="n">
         <v>8.898302153846442</v>
       </c>
       <c r="H80" t="n">
-        <v>11.00698683173956</v>
+        <v>11.00698683173955</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -7008,25 +7008,25 @@
         <v>4.513899651410305</v>
       </c>
       <c r="P80" t="n">
-        <v>40.77088592556548</v>
+        <v>40.77088592556547</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.006966362060530326</v>
+        <v>0.006966362060530327</v>
       </c>
       <c r="R80" t="n">
-        <v>0.1891336670800865</v>
+        <v>0.1891336670800874</v>
       </c>
       <c r="S80" t="n">
-        <v>0.03023176354654445</v>
+        <v>0.03023176354654461</v>
       </c>
       <c r="T80" t="n">
         <v>0.3097348918603962</v>
       </c>
       <c r="U80" t="n">
-        <v>0.01004412482958949</v>
+        <v>0.0100441248295895</v>
       </c>
       <c r="V80" t="n">
-        <v>0.04851763842687663</v>
+        <v>0.04851763842687765</v>
       </c>
       <c r="W80" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         </is>
       </c>
       <c r="X80" t="n">
-        <v>0.002195000000000391</v>
+        <v>0.001442799999999522</v>
       </c>
       <c r="Y80" t="n">
         <v>7</v>
@@ -7060,13 +7060,13 @@
         <v>359.9707751799401</v>
       </c>
       <c r="F81" t="n">
-        <v>30.11496370997523</v>
+        <v>30.11496370997522</v>
       </c>
       <c r="G81" t="n">
-        <v>89.19285935437632</v>
+        <v>89.1928593543763</v>
       </c>
       <c r="H81" t="n">
-        <v>8.728389622845585</v>
+        <v>8.728389622845578</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -7090,25 +7090,25 @@
         <v>22.8118929222853</v>
       </c>
       <c r="P81" t="n">
-        <v>29.99203990343668</v>
+        <v>29.99203990343667</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.007585830069883618</v>
+        <v>0.007585830069883369</v>
       </c>
       <c r="R81" t="n">
-        <v>0.1364251667992242</v>
+        <v>0.136425166799209</v>
       </c>
       <c r="S81" t="n">
-        <v>0.07117789276643056</v>
+        <v>0.07117789276642227</v>
       </c>
       <c r="T81" t="n">
-        <v>0.06703399728836092</v>
+        <v>0.06703399728835886</v>
       </c>
       <c r="U81" t="n">
-        <v>0.009434296734332895</v>
+        <v>0.009434296734332883</v>
       </c>
       <c r="V81" t="n">
-        <v>0.07372412796010221</v>
+        <v>0.07372412796010046</v>
       </c>
       <c r="W81" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         </is>
       </c>
       <c r="X81" t="n">
-        <v>0.002456899999998541</v>
+        <v>0.001826699999998738</v>
       </c>
       <c r="Y81" t="n">
         <v>9</v>
@@ -7175,19 +7175,19 @@
         <v>30.17869066301846</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.007623936772037198</v>
+        <v>0.00762393677203687</v>
       </c>
       <c r="R82" t="n">
-        <v>0.1481361669748582</v>
+        <v>0.14813616697483</v>
       </c>
       <c r="S82" t="n">
-        <v>0.08935058861543896</v>
+        <v>0.08935058861542296</v>
       </c>
       <c r="T82" t="n">
-        <v>0.04803793543577196</v>
+        <v>0.04803793543577133</v>
       </c>
       <c r="U82" t="n">
-        <v>0.009547552531184823</v>
+        <v>0.009547552531184819</v>
       </c>
       <c r="V82" t="n">
         <v>0.02846806845064483</v>
@@ -7198,7 +7198,7 @@
         </is>
       </c>
       <c r="X82" t="n">
-        <v>0.002815900000001648</v>
+        <v>0.00213719999999995</v>
       </c>
       <c r="Y82" t="n">
         <v>10</v>
@@ -7227,10 +7227,10 @@
         <v>30.1873757384601</v>
       </c>
       <c r="G83" t="n">
-        <v>65.18967863413629</v>
+        <v>65.18967863413631</v>
       </c>
       <c r="H83" t="n">
-        <v>7.017710210107704</v>
+        <v>7.017710210107702</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -7254,25 +7254,25 @@
         <v>15.84276469801805</v>
       </c>
       <c r="P83" t="n">
-        <v>32.33288020580832</v>
+        <v>32.33288020580831</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.007510084023274877</v>
+        <v>0.007510084023274762</v>
       </c>
       <c r="R83" t="n">
-        <v>0.1301152042498366</v>
+        <v>0.1301152042498402</v>
       </c>
       <c r="S83" t="n">
-        <v>0.05692456026992466</v>
+        <v>0.05692456026992567</v>
       </c>
       <c r="T83" t="n">
-        <v>0.1066194981358851</v>
+        <v>0.1066194981358837</v>
       </c>
       <c r="U83" t="n">
-        <v>0.01011763773508971</v>
+        <v>0.01011763773508976</v>
       </c>
       <c r="V83" t="n">
-        <v>0.06241381943123664</v>
+        <v>0.06241381943123905</v>
       </c>
       <c r="W83" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         </is>
       </c>
       <c r="X83" t="n">
-        <v>0.00218479999999488</v>
+        <v>0.001675500000001051</v>
       </c>
       <c r="Y83" t="n">
         <v>8</v>
@@ -7309,7 +7309,7 @@
         <v>30.00187194326518</v>
       </c>
       <c r="G84" t="n">
-        <v>49.10179828930465</v>
+        <v>49.10179828930466</v>
       </c>
       <c r="H84" t="n">
         <v>10.81082153137649</v>
@@ -7339,22 +7339,22 @@
         <v>37.51808795256135</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.007795341451065674</v>
+        <v>0.007795341451065752</v>
       </c>
       <c r="R84" t="n">
-        <v>0.1453800175131562</v>
+        <v>0.1453800175131582</v>
       </c>
       <c r="S84" t="n">
-        <v>0.07088771300586685</v>
+        <v>0.07088771300586796</v>
       </c>
       <c r="T84" t="n">
-        <v>0.118225657004263</v>
+        <v>0.1182256570042649</v>
       </c>
       <c r="U84" t="n">
         <v>0.01077779701831359</v>
       </c>
       <c r="V84" t="n">
-        <v>0.05331979598378558</v>
+        <v>0.05331979598378517</v>
       </c>
       <c r="W84" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         </is>
       </c>
       <c r="X84" t="n">
-        <v>0.002609100000000808</v>
+        <v>0.00213160000000201</v>
       </c>
       <c r="Y84" t="n">
         <v>9</v>
@@ -7391,7 +7391,7 @@
         <v>29.85046435468708</v>
       </c>
       <c r="G85" t="n">
-        <v>46.23899658273124</v>
+        <v>46.23899658273123</v>
       </c>
       <c r="H85" t="n">
         <v>11.13141807204261</v>
@@ -7421,22 +7421,22 @@
         <v>38.04343531316499</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.00776483164083093</v>
+        <v>0.007764831640831198</v>
       </c>
       <c r="R85" t="n">
-        <v>0.1449901187011448</v>
+        <v>0.1449901187011492</v>
       </c>
       <c r="S85" t="n">
-        <v>0.07008728311875362</v>
+        <v>0.07008728311875796</v>
       </c>
       <c r="T85" t="n">
-        <v>0.1230285610042531</v>
+        <v>0.1230285610042599</v>
       </c>
       <c r="U85" t="n">
-        <v>0.009900167319927617</v>
+        <v>0.009900167319927615</v>
       </c>
       <c r="V85" t="n">
-        <v>0.02945065900250565</v>
+        <v>0.02945065900250525</v>
       </c>
       <c r="W85" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="X85" t="n">
-        <v>0.002571099999997273</v>
+        <v>0.001942899999999526</v>
       </c>
       <c r="Y85" t="n">
         <v>9</v>
@@ -7476,7 +7476,7 @@
         <v>8.254167148952993</v>
       </c>
       <c r="H86" t="n">
-        <v>7.36146290770879</v>
+        <v>7.361462907708783</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -7500,25 +7500,25 @@
         <v>3.867981459909601</v>
       </c>
       <c r="P86" t="n">
-        <v>36.36948251856898</v>
+        <v>36.36948251856897</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.006558821021201203</v>
+        <v>0.006558821021201347</v>
       </c>
       <c r="R86" t="n">
-        <v>0.1904775213193162</v>
+        <v>0.1904775213193163</v>
       </c>
       <c r="S86" t="n">
-        <v>0.02477570784662941</v>
+        <v>0.02477570784663002</v>
       </c>
       <c r="T86" t="n">
-        <v>0.3082646940801527</v>
+        <v>0.308264694080162</v>
       </c>
       <c r="U86" t="n">
-        <v>0.01117488354106917</v>
+        <v>0.01117488354106916</v>
       </c>
       <c r="V86" t="n">
-        <v>0.03460397460243976</v>
+        <v>0.03460397460244182</v>
       </c>
       <c r="W86" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="X86" t="n">
-        <v>0.002327699999995048</v>
+        <v>0.001496100000000666</v>
       </c>
       <c r="Y86" t="n">
         <v>7</v>
@@ -7585,22 +7585,22 @@
         <v>25.97658074412357</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.007375809123130787</v>
+        <v>0.007375809123130967</v>
       </c>
       <c r="R87" t="n">
-        <v>0.130822684790767</v>
+        <v>0.1308226847907719</v>
       </c>
       <c r="S87" t="n">
-        <v>0.06810454577930909</v>
+        <v>0.06810454577931198</v>
       </c>
       <c r="T87" t="n">
-        <v>0.04852748605818257</v>
+        <v>0.04852748605818322</v>
       </c>
       <c r="U87" t="n">
-        <v>0.01020742076890186</v>
+        <v>0.01020742076890189</v>
       </c>
       <c r="V87" t="n">
-        <v>0.006035983337111892</v>
+        <v>0.006035983337110243</v>
       </c>
       <c r="W87" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         </is>
       </c>
       <c r="X87" t="n">
-        <v>0.002727399999997715</v>
+        <v>0.002053700000001157</v>
       </c>
       <c r="Y87" t="n">
         <v>10</v>
@@ -7637,10 +7637,10 @@
         <v>30.00651721077468</v>
       </c>
       <c r="G88" t="n">
-        <v>37.12898629958628</v>
+        <v>37.12898629958626</v>
       </c>
       <c r="H88" t="n">
-        <v>5.381198631126538</v>
+        <v>5.38119863112654</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -7667,22 +7667,22 @@
         <v>32.93063527222422</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.007111222187002953</v>
+        <v>0.007111222187002941</v>
       </c>
       <c r="R88" t="n">
-        <v>0.1268386361218597</v>
+        <v>0.126838636121858</v>
       </c>
       <c r="S88" t="n">
-        <v>0.03743130999183737</v>
+        <v>0.03743130999183778</v>
       </c>
       <c r="T88" t="n">
-        <v>0.1715193770263158</v>
+        <v>0.1715193770263165</v>
       </c>
       <c r="U88" t="n">
-        <v>0.01013326282384582</v>
+        <v>0.01013326282384584</v>
       </c>
       <c r="V88" t="n">
-        <v>0.07315340577903567</v>
+        <v>0.07315340577903415</v>
       </c>
       <c r="W88" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         </is>
       </c>
       <c r="X88" t="n">
-        <v>0.004113300000000208</v>
+        <v>0.001767699999998484</v>
       </c>
       <c r="Y88" t="n">
         <v>8</v>
@@ -7716,7 +7716,7 @@
         <v>0.001260969332848928</v>
       </c>
       <c r="F89" t="n">
-        <v>30.0290628760865</v>
+        <v>30.02906287608649</v>
       </c>
       <c r="G89" t="n">
         <v>118.1880946549989</v>
@@ -7743,28 +7743,28 @@
         <v>25.30051964941712</v>
       </c>
       <c r="O89" t="n">
-        <v>40.6248151313915</v>
+        <v>40.62481513139149</v>
       </c>
       <c r="P89" t="n">
         <v>25.3086773564487</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.00750264749832548</v>
+        <v>0.00750264749832691</v>
       </c>
       <c r="R89" t="n">
-        <v>0.158323167802791</v>
+        <v>0.1583231678028561</v>
       </c>
       <c r="S89" t="n">
-        <v>0.1013782578386875</v>
+        <v>0.1013782578387301</v>
       </c>
       <c r="T89" t="n">
-        <v>0.0358204497301644</v>
+        <v>0.03582044973016998</v>
       </c>
       <c r="U89" t="n">
-        <v>0.01009239657701124</v>
+        <v>0.01009239657701123</v>
       </c>
       <c r="V89" t="n">
-        <v>0.00541617229383371</v>
+        <v>0.005416172293825683</v>
       </c>
       <c r="W89" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="X89" t="n">
-        <v>0.00299339999999404</v>
+        <v>0.002183500000001004</v>
       </c>
       <c r="Y89" t="n">
         <v>11</v>
@@ -7804,7 +7804,7 @@
         <v>116.4381832318385</v>
       </c>
       <c r="H90" t="n">
-        <v>9.15724710368656</v>
+        <v>9.157247103686561</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7825,28 +7825,28 @@
         <v>25.01898544775609</v>
       </c>
       <c r="O90" t="n">
-        <v>25.89190214108016</v>
+        <v>25.89190214108018</v>
       </c>
       <c r="P90" t="n">
         <v>25.21389342909407</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.007384316257530972</v>
+        <v>0.007384316257531209</v>
       </c>
       <c r="R90" t="n">
-        <v>0.1302171041976724</v>
+        <v>0.1302171041976808</v>
       </c>
       <c r="S90" t="n">
-        <v>0.06646958799391904</v>
+        <v>0.06646958799392366</v>
       </c>
       <c r="T90" t="n">
-        <v>0.04714370719519015</v>
+        <v>0.04714370719519087</v>
       </c>
       <c r="U90" t="n">
-        <v>0.009962034183278198</v>
+        <v>0.009962034183278233</v>
       </c>
       <c r="V90" t="n">
-        <v>0.03713526068523312</v>
+        <v>0.03713526068523385</v>
       </c>
       <c r="W90" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         </is>
       </c>
       <c r="X90" t="n">
-        <v>0.004351499999998509</v>
+        <v>0.001840600000001302</v>
       </c>
       <c r="Y90" t="n">
         <v>9</v>
@@ -7880,13 +7880,13 @@
         <v>0.02353865834941909</v>
       </c>
       <c r="F91" t="n">
-        <v>30.00179651232987</v>
+        <v>30.00179651232986</v>
       </c>
       <c r="G91" t="n">
         <v>91.10585530819743</v>
       </c>
       <c r="H91" t="n">
-        <v>6.022140539196656</v>
+        <v>6.022140539196651</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7910,25 +7910,25 @@
         <v>17.15003129537725</v>
       </c>
       <c r="P91" t="n">
-        <v>28.51380229651146</v>
+        <v>28.51380229651145</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.007304516795608761</v>
+        <v>0.007304516795608472</v>
       </c>
       <c r="R91" t="n">
-        <v>0.1206140893916564</v>
+        <v>0.120614089391653</v>
       </c>
       <c r="S91" t="n">
-        <v>0.05301946465324655</v>
+        <v>0.05301946465324345</v>
       </c>
       <c r="T91" t="n">
-        <v>0.0874095657017035</v>
+        <v>0.08740956570169894</v>
       </c>
       <c r="U91" t="n">
-        <v>0.01039467945681119</v>
+        <v>0.01039467945681122</v>
       </c>
       <c r="V91" t="n">
-        <v>0.05967614112898419</v>
+        <v>0.059676141128987</v>
       </c>
       <c r="W91" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         </is>
       </c>
       <c r="X91" t="n">
-        <v>0.001977299999992965</v>
+        <v>0.001622900000000982</v>
       </c>
       <c r="Y91" t="n">
         <v>7</v>
@@ -7968,7 +7968,7 @@
         <v>26.53312587640639</v>
       </c>
       <c r="H92" t="n">
-        <v>5.070023124531143</v>
+        <v>5.070023124531144</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7995,22 +7995,22 @@
         <v>32.86558230240811</v>
       </c>
       <c r="Q92" t="n">
-        <v>0.006820747678450906</v>
+        <v>0.006820747678450921</v>
       </c>
       <c r="R92" t="n">
-        <v>0.1347012674015011</v>
+        <v>0.1347012674015001</v>
       </c>
       <c r="S92" t="n">
-        <v>0.03116408218446609</v>
+        <v>0.03116408218446652</v>
       </c>
       <c r="T92" t="n">
-        <v>0.2041551995781791</v>
+        <v>0.2041551995781779</v>
       </c>
       <c r="U92" t="n">
-        <v>0.0107154346621271</v>
+        <v>0.01071543466212711</v>
       </c>
       <c r="V92" t="n">
-        <v>0.1221223004345982</v>
+        <v>0.1221223004345992</v>
       </c>
       <c r="W92" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         </is>
       </c>
       <c r="X92" t="n">
-        <v>0.002229599999992615</v>
+        <v>0.001620100000000235</v>
       </c>
       <c r="Y92" t="n">
         <v>8</v>
@@ -8050,7 +8050,7 @@
         <v>36.00779647240523</v>
       </c>
       <c r="H93" t="n">
-        <v>6.963468904450533</v>
+        <v>6.963468904450535</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -8077,22 +8077,22 @@
         <v>34.5468979957159</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.007287297343120289</v>
+        <v>0.007287297343120399</v>
       </c>
       <c r="R93" t="n">
-        <v>0.1290837784267395</v>
+        <v>0.1290837784267362</v>
       </c>
       <c r="S93" t="n">
-        <v>0.04307950201712705</v>
+        <v>0.04307950201712658</v>
       </c>
       <c r="T93" t="n">
-        <v>0.161201347078147</v>
+        <v>0.1612013470781499</v>
       </c>
       <c r="U93" t="n">
-        <v>0.009404780632138029</v>
+        <v>0.009404780632138008</v>
       </c>
       <c r="V93" t="n">
-        <v>0.01516588686527942</v>
+        <v>0.01516588686528006</v>
       </c>
       <c r="W93" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         </is>
       </c>
       <c r="X93" t="n">
-        <v>0.00233539999999266</v>
+        <v>0.001629199999999997</v>
       </c>
       <c r="Y93" t="n">
         <v>8</v>
@@ -8159,22 +8159,22 @@
         <v>14.59598172412707</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.006712663880162833</v>
+        <v>0.006712663880163138</v>
       </c>
       <c r="R94" t="n">
-        <v>0.09992331279111513</v>
+        <v>0.09992331279113367</v>
       </c>
       <c r="S94" t="n">
-        <v>0.0411844249794073</v>
+        <v>0.04118442497941355</v>
       </c>
       <c r="T94" t="n">
-        <v>0.03645833280084626</v>
+        <v>0.03645833280084759</v>
       </c>
       <c r="U94" t="n">
-        <v>0.008895640340284741</v>
+        <v>0.008895640340284727</v>
       </c>
       <c r="V94" t="n">
-        <v>0.04083500725501003</v>
+        <v>0.04083500725500987</v>
       </c>
       <c r="W94" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="X94" t="n">
-        <v>0.002692199999998479</v>
+        <v>0.002762400000001719</v>
       </c>
       <c r="Y94" t="n">
         <v>10</v>
@@ -8235,28 +8235,28 @@
         <v>26.76193268396159</v>
       </c>
       <c r="O95" t="n">
-        <v>30.32795230829801</v>
+        <v>30.327952308298</v>
       </c>
       <c r="P95" t="n">
-        <v>26.63071006926936</v>
+        <v>26.63071006926937</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.007446001415938158</v>
+        <v>0.007446001415937759</v>
       </c>
       <c r="R95" t="n">
-        <v>0.1399751574802926</v>
+        <v>0.1399751574802588</v>
       </c>
       <c r="S95" t="n">
-        <v>0.08033166929244728</v>
+        <v>0.0803316692924297</v>
       </c>
       <c r="T95" t="n">
-        <v>0.03959603613371274</v>
+        <v>0.03959603613371303</v>
       </c>
       <c r="U95" t="n">
-        <v>0.008997821441188393</v>
+        <v>0.008997821441188407</v>
       </c>
       <c r="V95" t="n">
-        <v>0.02393896486965391</v>
+        <v>0.02393896486966039</v>
       </c>
       <c r="W95" t="inlineStr">
         <is>
@@ -8264,7 +8264,7 @@
         </is>
       </c>
       <c r="X95" t="n">
-        <v>0.002898200000004181</v>
+        <v>0.002026400000001871</v>
       </c>
       <c r="Y95" t="n">
         <v>10</v>
@@ -8323,22 +8323,22 @@
         <v>22.19991637904167</v>
       </c>
       <c r="Q96" t="n">
-        <v>0.007206895294926042</v>
+        <v>0.007206895294925471</v>
       </c>
       <c r="R96" t="n">
-        <v>0.1256458220302228</v>
+        <v>0.1256458220302021</v>
       </c>
       <c r="S96" t="n">
-        <v>0.06372612645869288</v>
+        <v>0.06372612645868181</v>
       </c>
       <c r="T96" t="n">
-        <v>0.03790757753885206</v>
+        <v>0.0379075775388523</v>
       </c>
       <c r="U96" t="n">
-        <v>0.009959969601234533</v>
+        <v>0.009959969601234488</v>
       </c>
       <c r="V96" t="n">
-        <v>0.02486649180606365</v>
+        <v>0.02486649180606391</v>
       </c>
       <c r="W96" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="X96" t="n">
-        <v>0.002752799999996114</v>
+        <v>0.002024500000000984</v>
       </c>
       <c r="Y96" t="n">
         <v>10</v>
@@ -8375,10 +8375,10 @@
         <v>30.01198093984558</v>
       </c>
       <c r="G97" t="n">
-        <v>40.87949904884266</v>
+        <v>40.87949904884272</v>
       </c>
       <c r="H97" t="n">
-        <v>5.342085993893789</v>
+        <v>5.342085993893781</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -8405,22 +8405,22 @@
         <v>32.68552825185198</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.007151455156499674</v>
+        <v>0.00715145515649972</v>
       </c>
       <c r="R97" t="n">
-        <v>0.1251260133066253</v>
+        <v>0.1251260133066218</v>
       </c>
       <c r="S97" t="n">
-        <v>0.03887721200472932</v>
+        <v>0.03887721200472938</v>
       </c>
       <c r="T97" t="n">
-        <v>0.1627209008471507</v>
+        <v>0.1627209008471519</v>
       </c>
       <c r="U97" t="n">
-        <v>0.009438937294135471</v>
+        <v>0.009438937294135457</v>
       </c>
       <c r="V97" t="n">
-        <v>0.03746991890469946</v>
+        <v>0.03746991890469389</v>
       </c>
       <c r="W97" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="X97" t="n">
-        <v>0.002296200000003523</v>
+        <v>0.002323900000000378</v>
       </c>
       <c r="Y97" t="n">
         <v>8</v>
@@ -8484,25 +8484,25 @@
         <v>16.00240907341345</v>
       </c>
       <c r="P98" t="n">
-        <v>41.68043496621746</v>
+        <v>41.68043496621745</v>
       </c>
       <c r="Q98" t="n">
-        <v>0.007924631525572583</v>
+        <v>0.007924631525572039</v>
       </c>
       <c r="R98" t="n">
-        <v>0.1545719021760785</v>
+        <v>0.1545719021760683</v>
       </c>
       <c r="S98" t="n">
-        <v>0.07608173534454167</v>
+        <v>0.07608173534453243</v>
       </c>
       <c r="T98" t="n">
-        <v>0.1415238220387273</v>
+        <v>0.1415238220387112</v>
       </c>
       <c r="U98" t="n">
-        <v>0.00967315512327516</v>
+        <v>0.009673155123275155</v>
       </c>
       <c r="V98" t="n">
-        <v>0.0648727858861403</v>
+        <v>0.06487278588614181</v>
       </c>
       <c r="W98" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         </is>
       </c>
       <c r="X98" t="n">
-        <v>0.002485200000009513</v>
+        <v>0.001933300000001026</v>
       </c>
       <c r="Y98" t="n">
         <v>9</v>
@@ -8569,22 +8569,22 @@
         <v>15.3988808346042</v>
       </c>
       <c r="Q99" t="n">
-        <v>0.007014782583754512</v>
+        <v>0.007014782583753752</v>
       </c>
       <c r="R99" t="n">
-        <v>0.1306037359952728</v>
+        <v>0.1306037359952647</v>
       </c>
       <c r="S99" t="n">
-        <v>0.06148720945420631</v>
+        <v>0.06148720945419971</v>
       </c>
       <c r="T99" t="n">
-        <v>0.04633582307989477</v>
+        <v>0.04633582307989548</v>
       </c>
       <c r="U99" t="n">
-        <v>0.009808636495805852</v>
+        <v>0.00980863649580585</v>
       </c>
       <c r="V99" t="n">
-        <v>0.03855963735506444</v>
+        <v>0.03855963735506486</v>
       </c>
       <c r="W99" t="inlineStr">
         <is>
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="X99" t="n">
-        <v>0.004961100000002716</v>
+        <v>0.002303400000002398</v>
       </c>
       <c r="Y99" t="n">
         <v>11</v>
@@ -8618,13 +8618,13 @@
         <v>0.03078098708016176</v>
       </c>
       <c r="F100" t="n">
-        <v>29.72210402541681</v>
+        <v>29.72210402541679</v>
       </c>
       <c r="G100" t="n">
         <v>132.508188401435</v>
       </c>
       <c r="H100" t="n">
-        <v>9.710524088327018</v>
+        <v>9.710524088327011</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -8648,25 +8648,25 @@
         <v>26.94620877909272</v>
       </c>
       <c r="P100" t="n">
-        <v>21.57438809551814</v>
+        <v>21.57438809551812</v>
       </c>
       <c r="Q100" t="n">
-        <v>0.007082065542729</v>
+        <v>0.007082065542728901</v>
       </c>
       <c r="R100" t="n">
-        <v>0.1193610193067679</v>
+        <v>0.1193610193067591</v>
       </c>
       <c r="S100" t="n">
-        <v>0.05844974360856801</v>
+        <v>0.05844974360856487</v>
       </c>
       <c r="T100" t="n">
-        <v>0.03998162812306526</v>
+        <v>0.03998162812306483</v>
       </c>
       <c r="U100" t="n">
-        <v>0.01087212136170319</v>
+        <v>0.0108721213617032</v>
       </c>
       <c r="V100" t="n">
-        <v>0.07378493665381738</v>
+        <v>0.07378493665382053</v>
       </c>
       <c r="W100" t="inlineStr">
         <is>
@@ -8674,7 +8674,7 @@
         </is>
       </c>
       <c r="X100" t="n">
-        <v>0.002469500000003677</v>
+        <v>0.002995699999999601</v>
       </c>
       <c r="Y100" t="n">
         <v>9</v>
@@ -8700,13 +8700,13 @@
         <v>359.9888958069282</v>
       </c>
       <c r="F101" t="n">
-        <v>30.09567634696532</v>
+        <v>30.09567634696533</v>
       </c>
       <c r="G101" t="n">
         <v>120.8396022602787</v>
       </c>
       <c r="H101" t="n">
-        <v>8.895524652372341</v>
+        <v>8.895524652372343</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -8733,22 +8733,22 @@
         <v>24.31090496886102</v>
       </c>
       <c r="Q101" t="n">
-        <v>0.007315636836727993</v>
+        <v>0.007315636836728154</v>
       </c>
       <c r="R101" t="n">
-        <v>0.1256444435241216</v>
+        <v>0.125644443524128</v>
       </c>
       <c r="S101" t="n">
-        <v>0.06237059053295209</v>
+        <v>0.06237059053295561</v>
       </c>
       <c r="T101" t="n">
-        <v>0.04752466732843853</v>
+        <v>0.04752466732843914</v>
       </c>
       <c r="U101" t="n">
-        <v>0.00971967231309343</v>
+        <v>0.00971967231309344</v>
       </c>
       <c r="V101" t="n">
-        <v>0.02476748912350937</v>
+        <v>0.02476748912350987</v>
       </c>
       <c r="W101" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         </is>
       </c>
       <c r="X101" t="n">
-        <v>0.004311299999997686</v>
+        <v>0.001977700000001192</v>
       </c>
       <c r="Y101" t="n">
         <v>9</v>
